--- a/deuChatbot/research_result/results/bleu_score/bleu_version_2(2500_300).xlsx
+++ b/deuChatbot/research_result/results/bleu_score/bleu_version_2(2500_300).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D204"/>
+  <dimension ref="A1:D305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6168,61 +6168,3495 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>GPT-4o-mini Average</t>
+          <t>Qwen2.5-7B-instruct</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기시험은 시각디자인, 산업디자인, 공예디자인 세 분야에서 각각 진행되며, 주요 내용은 다음과 같습니다:
+1. **모집단위 및 종목**:
+   - 모집단위: 시각디자인 / 산업디자인 / 공예디자인
+   - 종목: 기초디자인, 사고의 전환
+2. **준비물**:
+   - 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구가 필요합니다.
+3. **실기주제 및 화지크기**:
+   - **기초디자인**:
+     - 주제: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨
+       - 예시: 잠자리와 저울 (주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지 / 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음)
+     - 화지크기: 켄트지3절
+     - 시간: 5시간
+   - **사고의 전환**:
+     - 주제: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨
+       - 예시: 콜라병과 계절 (주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼 / 주제B: 바이러스, 자유, 여행, 계절, 꿈)
+     - 화지크기: 켄트지2절
+     - 시간: 5시간
+4. **주의사항**:
+   - 제공된 사물과 이미지 이외의 형상은 표현하지 마세요.
+   - 제공된 사물은 모두 1회 이상 표현해야 합니다.
+   - 제공된 사물의 색상은 변경하지 마세요.
+이러한 실기시험을 준비하면서, 다양한 주제와 상황에 대한 창의적인 접근법과 표현 능력을 키우는 것이 중요합니다. 또한 시간 관리와 효율적인 작업 방법도 함께 고려해야 합니다.</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>0.333147951253266</v>
+        <v>0.6990745072781869</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Google Gemma-2-9b-it Average</t>
+          <t>Qwen2.5-7B-instruct</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기종목은 시각디자인 / 산업디자인 / 공예디자인이 있으며, 각 종목별로 다음과 같은 특징이 있습니다:
+1. **실기종목**: 기초디자인, 사고의 전환
+2. **준비물**:
+   - 볼펜
+   - 연필
+   - 색연필
+   - 수채물감 등 표현에 필요한 도구
+3. **실기주제**:
+   - 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+   - 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 맥가이버 칼
+4. **화지크기**: 켄트지3절
+5. **시간**: 5시간
+이는 시각디자인 / 산업디자인 / 공예디자인 모두에 적용되는 규칙입니다.</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>0.2574801326468879</v>
+        <v>0.3575735473649096</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과 모집종목별 인정대회에 대한 정보는 다음과 같습니다:
+1. **배드민턴(남)**:
+   - 한국중·고연맹회장기전국학생선수권대회
+   - 대한배드민턴협회장기전국종별배드민턴선수권대회
+   - 전국학교대항배드민턴선수권대회
+   - 전국종별배드민턴선수권대회
+   - 전국연맹종별배드민턴선수권대회
+   - 전국체육대회
+   - 각종국제대회 (주니어팀 소속으로 출전한 대회만 인정)
+   - 광역시·도 협회장기 종별대회
+2. **축구(남)**:
+   - 춘계한국고등학교축구연맹전
+   - 추계한국고등학교축구연맹전
+   - 대한축구협회장배전국고등학교축구대회
+   - 문화체육관광부장관기전국고등학교축구대회
+   - 문화체육관광부장관배전국고등학교축구대회
+   - 백운기전국고등학교축구대회
+   - 전국고등축구리그(권역별고교축구리그)
+   - 전국고등축구리그왕중왕전
+   - 무학기전국고등학교축구대회
+   - 청룡기전국고등학교축구대회
+   - 백록기전국고등학교축구대회
+   - 금강대기전국고등학교축구대회
+   - 대통령금배전국고등학교축구대회
+   - 금석배전국고등학생축구대회
+   - 부산MBC전국고등학생축구대회
+   - K리그 U18 챔피언십
+   - K리그 U18 챔피언십왕중왕전
+이러한 대회들 중 일부는 특정 리그나 권역별 대회를 포함하고 있으며, 축구의 경우 리그 실적증명서도 함께 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>0.7532823942911211</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 기초디자인 실기시험에서는 주제A와 주제B 중 각각 1개씩 선정하여 연결된 주제를 당일 추첨으로 결정합니다. 주제들은 다음과 같습니다:
+주제A:
+- 잠자리
+- 무궁화
+- 피망 (파프리카)
+- 고양이 
+- 양파
+- 달팽이
+- 오렌지
+주제B:
+- 콜라병
+- 포카리스웨트(캔)
+- 마스크
+- 시계
+- 맥가이버 칼
+당일에는 주제A와 주제B 중에서 각각 1개씩 추첨하여 연결된 주제를 만드는 것이므로, 실제 시험에서는 선정되는 주제가 다를 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>0.4253591599134504</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 바탕으로, 학생부교과 전형에서 출결 점수는 일반적으로 반영되지 않습니다. 
+예를 들어:
+- 가군 수능(일반학생전형), 실기/실적(일반학생전형)의 경우, 전형요소 반영비율에서는 출결이 0%로 표시되어 있습니다.
+- 나군 학생부교과(평생학습자전형)의 경우, 전형요소 반영비율에서 출결은 0%입니다.
+- 나군 학생부종합(성인학습자(정원내)전형)의 경우, 전형요소 반영비율에서 출결은 30%로 표시되지만, 이는 주로 실기/실적 위주 전형에서의 비율이며 교과에서는 0%입니다.
+따라서, 학생부교과 전형인 대부분의 경우 출결 점수는 반영되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>8.862285634651879e-05</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>2024년 인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로는 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>0.8552014824228275</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>28명을 모집합니다.
+인문사회과학대학의 영어영문학과 - 교직은 다군 수능(일반학생전형) 모집단위이며, 해당 모집단위의 모집인원은 28입니다.</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>0.3410515864459298</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>110명입니다. 의료보건생활대학 간호학과 나군 일반 학생의 정원 내 모집 인원은 110명입니다.</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>0.4624700972153875</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>以下是根据韩语原文整理的英语翻译，以及您所询问的关于英语等级对应分数的信息：
+English Translation:
+The following is the information extracted from the provided Korean text:
+- English grade score corresponding to level 1 is 139.
+- English grade score corresponding to level 2 is 131.
+- English grade score corresponding to level 3 is 123.
+- English grade score corresponding to level 4 is 115.
+- English grade score corresponding to level 5 is 107.
+- English grade score corresponding to level 6 is 99.
+- English grade score corresponding to level 7 is 91.
+- English grade score corresponding to level 8 is 83.
+- English grade score corresponding to level 9 is 75.
+English Grade Score Corresponding to Each Level:
+- Level 1: 139
+- Level 2: 131
+- Level 3: 123
+- Level 4: 115
+- Level 5: 107
+- Level 6: 99
+- Level 7: 91
+- Level 8: 83
+- Level 9: 75</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>0.01083979137235355</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예, 예술고 학생은 나군 학생부교과(농어촌학생전형)로 지원 가능합니다. 
+고교유형별 지원자격에서 다음과 같이 명시되어 있습니다:
+- 모집군은 나군이며,
+- 전형명은 학생부교과(농어촌학생전형)이며, 
+- 고교유형별 지원자격의 특수목적고의 예술고는 지원 가능합니다.
+따라서 예술고 학생도 나군 학생부교과(농어촌학생전형)로 지원이 가능합니다.</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>0.2759648007490766</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급의 기록은 남은 거리가 268～271cm, 여은 거리가 218~221cm이며, 해당 등급의 배점은 275점입니다.</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>0.4755615358815339</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 경기지도학과에서 출결의 반영 비율은 12%입니다.
+이 정보는 "나군 실기/실적(경기실적우수자전형) 전형요소 반영비율" 섹션에서 확인할 수 있습니다. 경기지도학과의 경우, 전형요소 반영비율은 다음과 같습니다:
+- 학생부교과: 18%
+- 출결: 12% (이 질문에 대한 답변)
+- 서류(경기실적): 70%
+따라서, 경기지도학과의 출결 반영 비율은 총 모집인원을 평가할 때 12%를 차지합니다.</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>0.0001497637339125527</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 물리치료학과는 정원 내 모집 인원으로 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>0.6850839597105102</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사는 2024년 1월 17일(수)에 진행됩니다. 
+참고로, 이 일정은 다음과 같습니다:
+- **일정**: 2024년 1월 17일(수)
+- **내용**: 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 및 체육학과의 실기고사
+- **비고**: 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후에 입학안내 홈페이지에서 확인 가능합니다.</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>2.988898536694475e-05</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 응용화학과의 수능 최저기준 정보는 제공된 자료에서 명시되어 있지 않습니다. 
+제공된 정보 중에는 응용화학과에 대한 특정한 수능 최저기준이 언급되지 않았습니다. 일반적으로 수능 최저기준은 대학교나 학과별로 다르게 설정되며, 해당 학과의 홈페이지 또는 입학처 웹사이트를 통해 확인할 수 있습니다.
+따라서 정확한 정보를 얻으시려면 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 링크로 들어가 동의대학교의 공식 입학정보 페이지를 참조하시거나, 직접 학교 입학처에 문의하시는 것이 가장 정확한 방법입니다.</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>1.250672427472517e-08</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과로는 다음과 같습니다:
+1. 심리학과 (신설)
+2. 스마트항만물류학과 (신설) 
+3. 창업투자경영학과 (신설)
+이 외에도 일부 전공이 모집중지 또는 통합/분리되었습니다. 자세한 내용은 공식 입시 사이트를 확인하시거나, 제공된 링크(https://ipsi.deu.ac.kr/main.do)를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>0.3667037612147584</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 다음과 같습니다:
+- 서류: 70%
+- 면접: 30%
+이 비율은 모든 모집단위에 적용되는 일반적인 규칙입니다.</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>0.4325007851533212</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서는 한의예과 수학(미적분/기하) 응시자에게 수학 취득 표준점수의 10%를 가산점으로 부여합니다. 이는 다른 학과에는 적용되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>0.4096507592222897</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 가군에서 수능 성적은 다음과 같이 반영됩니다:
+1. **모집단위**: 전 모집단위 (레저스포츠학과, 태권도학과 제외)
+2. **반영 영역 및 비율**:
+   - 국어(화법과작문 또는 언어와매체): 25%
+   - 수학(확률과통계 또는 미적분 또는 기하): 25%
+   - 영어: 25%
+   - 탐구(사회탐구 또는 과학탐구 또는 직업탐구 중 2개 과목 합): 25%
+3. **가산점**: 가산점이 없습니다.
+따라서, 가군에서 수능 성적은 국어, 수학, 영어, 탐구 등 네 가지 영역을 각각 25%씩 반영하며, 이들 영역의 표준점수와 등급 점수를 합산하여 최종 점수를 산출합니다.</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>0.0392719714654738</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 다음과 같은 날짜에 진행됩니다:
+- 레저스포츠학과, 태권도학과: 2024. 01. 16.(화)
+- 디자인조형학과 (시각디자인, 산업디자인, 공예디자인), 체육학과: 2024. 01. 17.(수)
+이 정보는 전형일정에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>0.05782875036517215</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서는 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과가 실기/실적 전형으로 모집되므로, 이들 모집단위는 일반학생전형 수능만을 반영합니다. 따라서 나군 수능(일반학생전형)에서는 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과가 제외됩니다.
+이러한 모집단위들은 나군 실기/실적(경기실적우수자전형)에서만 지원할 수 있으며, 나군 수능(일반학생전형)에서는 일반학생전형 수능 성적으로만 평가받습니다.</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>0.0586794470899387</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 다군 전형에서는 수능 최저기준이 적용되지 않습니다.
+이는 "전형요소 반영비율" 항목에서 확인할 수 있습니다. 
+다군 수능(일반학생전형)에 대한 정보는 다음과 같습니다:
+- 전형명: 다군 수능(일반학생전형)
+- 모집단위: 전 모집단위
+- 전형요소 반영비율의 수능: 100%
+- 수능최저기준: 수능최저기준 없음
+이 항목에서 "수능최저기준" 부분이 "수능최저기준 없음"으로 표시되어 있어, 다군 전형에서는 수능 최저기준이 적용되지 않는 것을 알 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>0.00244848890701892</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 다음과 같은 학과가 학부에서 학과로 분리되었습니다:
+1. 보육·가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+이 외에도 여러 학과들이 학과로 재분류되거나 신설되었으나, 질문에서 언급된 내용은 위와 같습니다.</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>0.1164505506160543</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 전형일정에 따르면, 원서접수(인터넷)의 마감일은 2024년 1월 6일(토) 18시까지입니다.</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>0.6810836461590989</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 전형 요소 변화가 있는 주요 전형들은 다음과 같습니다:
+1. **학생부종합 평가영역 변경**
+   - 2023학년도: 인성 | 학업역량 | 전공적합성
+   - 2024학년도: 공동체역량 | 학업역량 | 전공적합성
+2. **전형요소 반영비율 변경**
+   - 2023학년도: 실기/실적(경기실적우수자전형): 학생부교과30% + 서류(실적)70%
+   - 2024학년도: 실기/실적(경기실적우수자전형): 학생부교과18% + 출결12% + 서류(실적)70%
+3. **전형요소 반영비율 변경**
+   - 2023학년도: 학생부종합(조기취업형계약학과전형): 서류(학생부)70% + 면접30%
+   - 2024학년도: 학생부종합(조기취업형계약학과전형): 서류(학생부)60% + 면접40%
+이러한 변경사항들은 전반적으로 평가 요소와 비율을 조정하여 더 공정하고 다각적인 학생들을 선발하려는 의도를 보여줍니다.</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>0.3086890786246825</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서는 레저스포츠학과와 태권도학과의 경우 실기가 70%의 비중을 차지합니다.
+이 정보는 "가군 수능(일반학생전형), 실기/실적(일반학생전형) 전형요소 반영비율" 섹션에서 확인할 수 있습니다. 해당 내용은 다음과 같습니다:
+- 가군 실기/실적(일반학생전형): 모집단위는 레저스포츠학과, 태권도학과이며, 전형요소 반영비율의 수능은 30%이고, 전형요소 반영비율의 실기는 70%입니다.
+따라서, 가군 실기/실적 전형에서 레저스포츠학과와 태권도학과는 실기가 전체 점수 중 70%를 차지합니다.</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>0.00108572335539686</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 라이프융합학부는 다음과 같은 세부 전공으로 구성되어 있습니다:
+- 스타트업창업투자학
+- 뷰티비즈니스학  
+- 라이프생활문화학
+이 학부는 미래융합대학에 속하며, 인문사회 계열로 분류됩니다.</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>0.5376382045094554</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사를 진행하는 학과는 다음과 같습니다:
+1. 레저스포츠학과 (가군 실기/실적(일반학생전형))
+2. 태권도학과 (가군 실기/실적(일반학생전형))
+이 두 학과에서만 실기고사가 진행되며, 다른 학과에서는 실기고사는 없습니다.</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>0.2149221422605789</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형을 시행하는 학과는 다음과 같습니다:
+1. 로봇자동화공학과 (나군 실기/실적(일반학생전형))
+2. 건축학과(5년제) (가군 수능(일반학생전형), 실기/실적(일반학생전형))
+이 두 학과에서 실기/실적 위주 전형을 시행하고 있습니다. 지원하려는 학과에 따라 해당하는 전형 정보를 확인하시면 좋을 것 같습니다.
+추가적으로, 로봇자동화공학과의 경우 실기/실적(일반학생전형)에서는 수능 30%와 실기 70%로 구성되어 있습니다. 건축학과(5년제)는 수능 위주 전형으로 운영되므로 실기/실적 위주의 전형은 해당되지 않습니다.
+자세한 정보는 동의대학교 입학처 웹사이트를 참조하시거나 직접 문의하시는 것이 좋습니다: https://ipsi.deu.ac.kr/main.do</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>0.02931448708749481</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>2024년도 동의대학교 미래융합대학에서 신설되는 라이프융합학부는 다음과 같은 세 가지 전공을 제공합니다:
+1. 스타트업창업투자학
+2. 뷰티비즈니스학 
+3. 라이프생활문화학
+이 학부는 2024년부터 신설되어 운영됩니다.</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>0.4643696767878233</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>네, 특수목적고등학교 학생도 동의대학교 일반학생전형에 지원이 가능합니다. 
+특수목적고등학교로는 과학고, 국제고, 외국어고, 예술고, 체육고, 마이스터고 등이 포함되며, 이들 특수목적고등학교의 학생들은 동의대학교의 가군 수능(일반학생전형)과 가군 실기/실적(일반학생전형) 모두 지원이 가능합니다.
+따라서, 특수목적고등학교에 다니는 학생이라면 해당 전형을 통해 지원하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>0.2788900548675192</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 확인하기 위해 각 학과의 정원 내 모집 인원을 살펴보겠습니다.
+1. 중어중국학과 - 교직: 46명
+2. 일본학과 - 교직: 55명
+3. 영어영문학과 - 교직: 50명
+4. 문헌정보학과 - 교직: 45명
+5. 평생교육·청소년상담학과 - 교직: 40명
+6. 심리학과 (신설): 30명
+7. 아동학과: 10명
+8. 경찰행정학과: 7명
+9. 소방방재행정학과: 5명
+10. 행정학과: 45명
+11. 사회복지학과: 60명
+이 중에서 가장 많은 정원 내 모집 인원을 보이는 학과는 **일본학과 - 교직**으로, 55명을 모집합니다.
+따라서 2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과는 **일본학과 - 교직**입니다.</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>0.02001363122093867</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>你是特教高中学生，根据提供的信息，你符合东义大学学生部课程（农村学生招生类型）的申请资格。
+具体来说，在“高中小学类型别申请资格”部分提到：
+- 模集群是“나군”（Na-goon）
+- 申请类型是“학생부교과(농어촌학생전형)”（学生成绩单科目（农村学生招生类型））
+对于“특수목적고등학교”的学生，该表中说明：
+- 特殊目的高中是可以申请的。
+因此，你是可以申请东义大学的学生部课程（农村学生招生类型）的。请确保你符合其他所有申请要求，并准备相应的申请材料。更多详细信息可以在 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 网站上找到。
+如果有任何具体问题或需要进一步的帮助，请告诉我！</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>0.05751806228881126</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>2024학년도 ICT융합공과대학 소프트웨어공학부의 최초합격자의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 330.11입니다.
+추가로, 영어 등급의 평균은 3.30이며, 수능 4개 영역 등급의 평균은 4.12입니다.
+수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균은 450.71입니다.
+이러한 정보는 제공된 데이터에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>0.1496261149073055</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 330.11입니다.</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>0.2426655989945036</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>2024학년도 합격자 발표 일정은 다음과 같습니다:
+- 최초 합격자 발표는 2024년 2월 2일(금) 14:00입니다.
+- 최초 합격자 등록은 2024년 2월 7일(수)부터 2월 13일(화)까지 (은행마감시간 내)입니다.
+- 충원 합격자 발표는 다음과 같습니다:
+  - 1차: 2024년 2월 14일(수) 09:00
+  - 2차: 2024년 2월 15일(목) 09:00
+- 충원 합격자 등록은 각각의 발표 시점에 맞춰 이루어집니다.
+- 3차 이후 합격자는 개별 전화 통보를 통해 안내받습니다.
+이 일정을 참고하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>0.5578204156015574</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>2024년 1월 17일(수)에 실기고사 중 체육학과와 디자인조형학과 (시각디자인, 산업디자인, 공예디자인)의 면접이 있습니다. 
+면접 일정은 다음과 같습니다:
+- **일시:** 2024년 1월 17일(수)
+- **대기실 및 입실 시간 안내:** 2024년 1월 12일(금) 14:00 이후, 입학안내 홈페이지에서 확인 가능합니다.
+참고로 면접은 개별면접으로 진행되며, 평균 10분 이내에 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>0.09013641885454822</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>提供的信息中没有直接提到韩医专业（한의예과）的具体最低学力标准。通常，韩国大学的最低入学要求包括高中毕业或同等学历。对于特定专业的额外要求可能会有所不同。
+如果您需要了解具体的最低学力标准，建议访问以下网站获取最新和详细的信息：
+https://ipsi.deu.ac.kr/main.do
+或者直接联系学校招生办公室以获得最准确的信息。</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>0.001191451178706786</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 보면, 전형요소 반영비율에서 수능최저기준 항목은 대부분 "수능최저기준 없음"으로 표시되어 있습니다. 
+특히, 가군 수능(일반학생전형)과 나군 수능(일반학생전형) 등 주요 전형에서는 수능 최저학력 기준이 없습니다.
+따라서 현재 제공된 정보로는 정시모집에서 수능최저학력기준이 없다고 볼 수 있습니다. 하지만 특정 학과나 전형에 따라 다르게 적용될 수도 있으므로, 가장 정확한 정보를 얻기 위해서는 공식 입학처 웹사이트 (https://ipsi.deu.ac.kr/main.do)를 참조하시거나 직접 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>5.132890578179203e-06</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>2024학년도 충원합격자는 다음과 같은 일정에 따라 발표됩니다:
+- **1차 충원 합격자 발표**: 2024. 02. 14.(수) 09:00
+- **1차 충원 합격자 등록**: 2024. 02. 14.(수) 09:00~16:00
+- **2차 충원 합격자 발표**: 2024. 02. 15.(목) 09:00
+- **2차 충원 합격자 등록**: 2024. 02. 15.(목) 09:00~16:00
+이후에는 **3차 이후 충원 합격자 발표**가 있으며, 이는 2024. 02. 15.(목) 19:00부터 2024. 02. 20.(화) 18시까지 이루어집니다.
+발표 및 등록에 대한 자세한 내용은 입학관리팀 또는 학교 홈페이지에서 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>0.229006469992355</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목) 09:00부터 추가합격자 발표가 이루어집니다. 이날짜에 홈페이지에서 개별적으로 합격자를 확인할 수 있으며, 고지서도 홈페이지에서 출력하거나 입학관리팀에서 받을 수 있습니다.
+추가합격자 등록은 같은 날인 2024년 2월 15일(목) 09:00부터 16:00까지 가능합니다. 이 기간 내에 학교 지정 은행으로 등록금을 납부해야 합니다.
+추가합격자 발표 및 등록은 3차로 이루어질 수 있으며, 마지막 3차는 2024년 2월 20일(화)까지 진행될 예정입니다.</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>0.316585147863514</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 특정 단과대학이나 학과의 추가 모집 여부를 확인할 수 없습니다. 추가 모집 여부와 관련된 최신 정보는 일반적으로 대학 입학처 웹사이트나 공식 안내서에서 확인할 수 있습니다.
+따라서, "https://ipsi.deu.ac.kr/main.do" 주소로 접속하여 최신 정보를 확인하시거나, 직접 대학 입학처에 문의하시는 것이 가장 정확한 방법입니다.</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>0.1501159571536199</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 대학교 입시에서 평생교육을 받은 학습자나 성인학습자를 대상으로 하는 특별한 전형입니다. 주요 내용은 다음과 같습니다:
+1. **모집단위 및 모집인원**:
+   - 단과대학: 미래융합대학
+   - 계열: 인문사회
+   - 모집단위: 라이프융합학부 (신설)
+     - 스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학
+   - 모집인원:
+     - 학생부종합(평생학습자전형): 11명
+     - 학생부종합(성인학습자(정원내·외)전형): 23명
+     - 학생부종합(재직자전형): 7명
+2. **지원자격**:
+   - 산업체 적용범위: 
+     - 국가·지방자치단체 및 공공단체 (소속 직원의 경우)
+     - 근로기준법 제11조에 의거 상시근로자 5인(사업주 포함) 이상 사업체
+     - 4대 보험 중 1개 이상 가입 사업체 (창업·자영업자 포함)
+   - 재직기간 산정: 
+     - 2024년 3월 1일 기준으로 총 재직기간이 3년 이상(예정)이어야 함
+     - 중복되는 기간은 이중으로 합산하지 않음
+3. **전형요소 반영비율**:
+   - 서류: 70%
+   - 면접: 30%
+4. **제출서류**:
+   - 고교 졸업(예정)자: 고교 학교생활기록부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+   - 검정고시출신자: 
+     - 검정고시 합격증서 사본 또는 합격증명서
+     - 검정고시 성적증명서
+     - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+   - 외국고교 졸업(예정)자: 
+     - 공증받은 외국고교 졸업(예정)증명서
+     - 공증받은 외국고교 성적증명서
+     - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+5. **평가영역 및 배점**:
+   - 평가영역: 공동체역량, 학업역량, 전공적합성
+   - 평가배점:
+     - 공동체역량: 1등급 140점, 2등급 129.5점, 3등급 119점, 4등급 108.5점, 5등급 98점
+     - 학업역량: 1등급 280점, 2등급 259점, 3등급 238점, 4등급 217점, 5등급 196점
+     - 전공적합성: 1등급 280점, 2등급 259점, 3등급 238점, 4등급 217점, 5등급 196점
+6. **동점자 처리기준**:
+   - 순위 1: 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 전 과목 등급 평균 상위자
+   - 순위 2: 영어교과 전 과목 등급 평균 상위자
+   - 순위 3: 국어교과 전 과목 등급 평균 상위자
+이러한 정보를 바탕으로 평생학습자전형에 지원하려는 학생들은 해당 조건을 충족시키고, 필요한 서류를 준비하여 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>0.4268220274419746</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원 자격은 다음과 같습니다:
+1. 산업체 적용 범위:
+   - 국가·지방자치단체 및 공공단체 (소속 직원의 경우)
+   - 근로기준법 제11조에 의거 상시근로자 5인(사업주 포함) 이상 사업체
+   - 4대 보험 중 1개 이상 가입 사업체 (창업·자영업자 포함)
+     ※ 단, 4대 보험 가입 대상 사업체가 아닌 1차 산업 종사자는 국가·지방자치단체가 발급하는 공적증명서 확인을 통해 인정할 수 있음
+2. 재직기간:
+   - 2024년 3월 1일 기준으로 총 재직기간이 3년 이상(예정)이어야 함
+   - 재직기간은 제출한 지원 자격 증빙 서류 상으로 증명되는 기간만 산정
+   - 2개 이상의 산업체에 재직한 경우 총 재직기간은 합산하여 산정하되, 중복되는 기간은 이중으로 합산하지 않음
+   - 군 의무복무 경력도 재직기간으로 인정함
+이러한 자격 요건을 충족해야 평생학습자전형에 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>0.0005890539676718113</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 실기고사는 각각의 모집단위에 따라 다른 장소에서 진행됩니다. 예를 들어:
+1. **체육학과**:
+   - 제자리 멀리뛰기, 메디신볼 던지기, Z-런 등은 체육학과에서 실시될 것입니다.
+2. **레저스포츠학과**:
+   - 제자리 멀리뛰기와 Z-런은 레저스포츠학과에서 실시됩니다.
+3. **태권도학과**:
+   - 품새, 시범, 겨루기는 태권도학과에서 실시될 것입니다.
+具体的来说，你可以根据不同的专业和项目前往相应的学院进行实考。例如：
+1. 体育学系的考生需要去体育学系参加立定跳远、 medicine ball 投掷和 Z-run 等项目的考试。
+2. 娱乐体育学系的考生则需要到娱乐体育学系参加立定跳远和 Z-run 的考试。
+3. 武术系的考生需要到武术学系参加品势、示范和对练等项目的考试。
+建议你查看具体的招生简章或联系学校以获取更详细的信息。</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>0.0009939271841690443</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 다음과 같이 진행됩니다:
+1. **모집단위 및 종목**:
+   - 모집단위: 체육학과
+   - 종목별 배점(비율):
+     - 제자리 멀리뛰기: 240점 (24%)
+     - 메디신볼 던지기: 243점 (23%)
+     - Z-런: 230점 (23%)
+2. **일정**:
+   - 실기고사 일정은 정확히 제공되지 않았지만, 일반적으로 실기고사는 원서접수 후 일정 시간이 경과한 뒤에 진행됩니다.
+3. **준비사항**:
+   - 각 종목별로 필요한 준비물과 규칙을 확인해야 합니다 (예: 제자리 멀리뛰기는 특정 거리를 뛰어야 함, 메디신볼 던지는 정확한 방식으로 던져야 함 등).
+4. **장소**:
+   - 실기고사는 대학 내에서 진행되며, 구체적인 장소는 공지일정에 따라 입학 안내 홈페이지를 통해 확인할 수 있습니다.
+따라서 체육학과의 실기고사를 위해서는 해당 모집단위와 종목을 선택하고, 일정에 맞춰 준비물과 규칙을 숙지한 후, 지정된 장소로 이동하여 시험을 치르게 됩니다.</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>0.0002498401966494979</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>2024년도 수시 충원 합격자 발표 후에 전화 통보 여부는 일반적으로 대학마다 다르므로 정확한 정보를 얻기 위해서는 해당 대학의 입학처 웹사이트나 연락처로 직접 문의하는 것이 좋습니다. 
+일반적인 절차는 다음과 같습니다:
+1. 합격자 발표가 공식적으로 이루어진 후, 대학 입학처 홈페이지에서 합격자 명단을 확인합니다.
+2. 충원 합격자 명단에 포함되어 있다면, 일반적으로 이메일이나 문자 메시지로 먼저 알림이 옵니다.
+3. 일부 대학에서는 추가적인 전화 통보를 통해 합격 사실을 알려주는 경우도 있습니다.
+하지만 특정한 대학의 정책은 공식 홈페이지나 연락처를 통해 확인해야 합니다. 주어진 정보에 따르면, 이 대학에서는 충원 합격자 발표 후 2024년 2월 15일 오후 7시까지 등록금을 납부해야 하며, 이후 일정한 기간 동안 합격 사실을 확인할 수 있습니다. 따라서 전화 통보 여부는 이 시점에서 아직 확실하지 않습니다.
+추가 정보를 얻기 위해서는 다음과 같은 방법을 사용해 보세요:
+- 대학 입학처 웹사이트 확인
+- 대학 입학처 연락처로 직접 문의하기
+이러한 절차를 통해 가장 정확하고 최신의 정보를 얻을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>0.06651479595862374</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과의 수시모집 결과에 대한 정보는 제공된 자료에서 직접적으로 확인할 수 없습니다. 하지만, 2024학년도의 모집 상황을 통해 일부 추론이 가능합니다.
+2024학년도 경찰행정학과의 모집 인원은 7명이며, 지원 인원은 29명으로, 경쟁률은 4.14입니다. 충원 합격자는 7명으로 전액 채워졌습니다.
+이 정보를 바탕으로 추론하면:
+- 2023학년도에도 대략 비슷한 수준의 모집 인원과 지원 인원, 경쟁률이 유지되었을 가능성이 높습니다.
+- 충원 합격자 수도 7명으로 전액 채워졌을 것으로 예상됩니다.
+하지만 정확한 2023학년도 수시모집 결과는 공식 발표나 입학처 웹사이트를 참조해야 합니다. 자세한 정보는 https://ipsi.deu.ac.kr/main.do 링크에서 확인해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>0.06144647647853444</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>2024학년도 입학사정관제와 실기/실적 위주전형에서는 수능을 응시하지 않은 학생도 지원이 가능합니다. 특히, 다음과 같은 전형들은 수능 응시 여부에 관계없이 지원할 수 있습니다:
+1. **학생부종합(평생학습자전형/성인학습자전형/재직자전형)**: 이들 전형은 학생부와 면접을 주요 평가 기준으로 하므로, 수능 응시 여부에 상관없이 지원 가능합니다.
+2. **나군 학생부종합(조기취업형계약학과전형)**: 이 전형도 서류 평가와 면접을 통해 평가되므로 수능 없이 지원할 수 있습니다.
+3. **다군 수능(일반학생전형)의 일부 모집단위**: 예를 들어, 인문사회과학대학, 상경대학 등의 모집단위에서는 수능 성적이 아닌 다른 요소들에 따라 평가되므로 수능 응시 여부에 관계없이 지원 가능합니다.
+따라서, 수능을 응시하지 않은 학생도 이러한 전형들을 통해 지원할 수 있습니다. 하지만 특정 전형이나 모집단위에서는 수능 성적이 반영될 수 있으므로, 해당 전형의 세부 사항을 꼭 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>3.700522784356146e-06</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 바탕으로, 일반적으로 고등학교 졸업 후 10년이 지났다면 정시모집의 경우 지원이 어려울 것으로 보입니다. 대부분의 대학은 고등학교 졸업생을 대상으로 하고 있으며, 성인 학습자 전형이나 특별전형 등에 해당하는 경우가 많습니다.
+만약 10년 이상 경과한 경우에는 다음과 같은 방법들을 고려해볼 수 있습니다:
+1. **성인학습자전형**: 일부 대학에서는 만 30세 이상의 성인 학습자를 대상으로 하는 전형을 운영합니다.
+2. **평생교육전형**: 특정 교육기관에서 제공하는 평생교육 과정을 이수한 후 지원할 수 있는 경우가 있습니다.
+3. **특별전형**: 예를 들어, 경력자 전형이나 재직자 전형 등이 있을 수 있습니다.
+具体的来说，如果你高中毕业已经超过10年，通常情况下你可能无法直接通过常规的高考招生途径申请大学。大多数大学主要面向刚从高中毕业的学生开放。但是，你可以考虑以下几种方式：
+1. **成人学士学位入学**：一些大学设有针对30岁以上成人的特殊入学计划。
+2. **终身教育课程**：参加特定教育机构提供的终身教育课程后可以申请。
+3. **特别招生类型**：例如在职人员招生、工作经验生等。
+建议你访问目标大学的官方网站或直接联系学校的招生办公室，了解是否有适合你的特殊招生途径。此外，也可以咨询教育顾问获取更详细的指导和帮助。</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>0.02030613989734335</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 정시모집 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**:
+   - 날짜: 2024. 01. 02.(화)
+   - 비고: 입학안내 홈페이지 공고
+2. **원서접수(인터넷)**:
+   - 기간: 2024. 01. 03.(수) ~ 2024. 01. 06.(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. **서류 제출 (제출서류가 있는 경우)**:
+   - 기간: 2024. 01. 03.(수) ~ 2024. 01. 12.(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조) 제출방법 : 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. **&lt;가&gt;군 실기고사 레저스포츠학과 태권도학과**:
+   - 날짜: 2024. 01. 16.(화)
+   - 비고: 대기실 및 입실시간 안내 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. **&lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과**:
+   - 날짜: 2024. 01. 17.(수)
+   - 비고: 대기실 및 입실시간 안내 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 2024. 02. 02.(금) 14:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록: 2024. 02. 07.(수) ~ 02. 13.(화) (은행마감시간 내)
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표: 2024. 02. 14.(수) 09:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록: 2024. 02. 14.(수) 09:00~16:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표: 2024. 02. 15.(목) 09:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록: 2024. 02. 15.(목) 09:00~16:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록: 개별 전화 통보 시 안내
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+이 일정들은 동의대학교 2024학년도 정시모집의 주요 단계를 포함하고 있으며, 각 단계별로 필요한 준비와 제출 사항을 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>0.7533058843892372</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시모집 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**:
+   - 날짜: 2024. 01. 02.(화)
+   - 비고: 입학안내 홈페이지 공고
+2. **원서접수(인터넷)**:
+   - 기간: 2024. 01. 03.(수) ~ 2024. 01. 06.(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. **서류 제출 (제출서류가 있는 경우)**:
+   - 기간: 2024. 01. 03.(수) ~ 2024. 01. 12.(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조) 
+          제출방법 : 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. **&lt;가&gt;군 실기고사 레저스포츠학과 태권도학과**:
+   - 날짜: 2024. 01. 16.(화)
+   - 비고: 대기실 및 입실시간 안내 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. **&lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과**:
+   - 날짜: 2024. 01. 17.(수)
+   - 비고: 대기실 및 입실시간 안내 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 2024. 02. 02.(금) 14:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록: 2024. 02. 07.(수) ~ 02. 13.(화) (은행마감시간 내)
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 1차 발표: 2024. 02. 14.(수) 09:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 1차 등록: 2024. 02. 14.(수) 09:00~16:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 2차 발표: 2024. 02. 15.(목) 09:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 2차 등록: 2024. 02. 15.(목) 09:00~16:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 등록: 개별 전화 통보 시 안내
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+이 일정들은 동의대학교 2024학년도 정시모집의 주요 단계를 포함하고 있으며, 각 단계별로 필요한 준비와 절차가 있습니다.</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>0.3772182105437401</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시모집에서는 수능 미응시자도 지원이 가능한 전형으로 "학생부종합(조기취업형계약학과전형)"이 있습니다. 이 전형의 특징은 다음과 같습니다:
+1. **지원 자격**: 고교 졸업(예정)자, 검정고시 출신자 또는 외국고교 졸업(예정)자가 가능합니다.
+2. **제출서류**:
+   - 고교 졸업(예정)자는 고교 학교생활기록부 1부를 제출해야 합니다.
+   - 검정고시 출신자는 검정고시 합격증서 사본 또는 합격증명서, 검정고시 성적증명서를 제출해야 합니다.
+   - 외국고교 졸업(예정)자는 공증받은 외국고교 졸업(예정)증명서와 성적증명서를 제출해야 합니다.
+3. **평가 요소**:
+   - 서류 평가: 학생부 교과성적, 진로 관련 활동 등이 평가됩니다.
+   - 면접 평가: 지원 동기 및 학업 계획, 학업역량, 전공적합성 등을 평가합니다.
+4. **전형 요소 반영 비율**: 서류 60% + 면접 40%
+따라서 수능 미응시자도 이 전형을 통해 지원이 가능하며, 필요한 서류를 준비하여 제출하면 됩니다.</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>0.02288500429185699</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>2024학년도 데이터만 제공되어 있습니다. 2023학년도의 데이터는 직접 확인할 수 없습니다. 하지만, 2024학년도 전자공학과의 충원 합격 정보를 보면:
+- 최초합격자는 1차에서 모두 충원되었습니다 (충원 합격 (후보순위)은 36).
+- 최종등록자 중에서도 1차에서 25명이 충원되었습니다.
+따라서, 2024학년도의 경우 전자공학과는 최초합격자와 최종등록자의 경우 모두 1차에서 충원 합격이 이루어졌습니다. 하지만 전년도 데이터가 없어 정확한 정보를 제공하기 어렵습니다. 필요하시다면 공식 홈페이지 (https://ipsi.deu.ac.kr/main.do)를 참조해 보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>0.1307476228418462</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有直接提到东义大学入学处的电话号码。建议您访问东义大学官网（https://ipsi.deu.ac.kr/main.do）上的联系方式页面，或者直接在官网上查找联系入学处的具体方式和电话号码。
+如果您需要进一步的帮助或有其他问题，请告诉我！</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>0.2221292853010868</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목) 19:00부터 20일(화) 18시까지는 합격자 발표 및 등록금 납부 충원합격자 3차 이후 (개별 전화 통보) 발표 기간입니다. 이 기간 동안 학교에서는 개별 전화 통보를 통해 합격자를 알립니다.
+만약 전화 통화가 되지 않는 경우, 다음과 같은 절차로 처리될 수 있습니다:
+1. **홈페이지 확인**: 합격자 발표는 홈페이지에서 개별 조회 가능합니다.
+2. **고지서 출력**: 고지서를 홈페이지에서 직접 출력하거나 입학관리팀에서 받을 수 있습니다.
+3. **등록장소 방문**: 등록장소로 학교 지정은행에 방문하여 등록금을 납부해야 합니다.
+따라서, 전화 통화가 되지 않더라도 위의 방법들을 통해 합격 여부를 확인하고 필요한 절차를 완료할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>0.1728066332982078</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원시 다음과 같은 서류를 제출해야 합니다:
+1. 고교 학교생활기록부 1부 (교육기관, 공공기관, 무인민원발급기, 인터넷 정부24에서 발급 가능)
+2. 검정고시 합격증서 사본 또는 합격증명서 1부 (검정고시출신자만 필요)
+3. 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음, 교육기관, 공공기관, 무인민원발급기, 인터넷 발급 가능) 
+4. 학교생활기록부 대체 서류(제출여부 선택 가능)
+추가적으로, 외국고교 졸업(예정)자는 다음과 같은 추가서류를 제출해야 합니다:
+1. 공증받은 외국고교 졸업(예정)증명서 1부
+2. 공증받은 외국고교 성적증명서 1부 
+3. 학교생활기록부 대체 서류(제출여부 선택 가능)
+위와 같은 서류들은 원본 제출을 원칙으로 합니다. 단, 원본 재발급이 불가능한 유일본의 경우 원본 제시 후 원본대조필이 가능합니다.
+또한, 최종 등록자 중 외국고교 졸업예정자는 2024년 2월 16일까지 졸업증명서(아포스티유 확인서 또는 영사확인 발급)를 추가로 제출해야 합니다.
+위와 같은 서류들을 정확하게 준비하여 제출하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>0.3537369905242663</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>12년 과정에서 농어촌학생전형으로 지원시 다음과 같은 서류를 제출해야 합니다:
+- 고교 졸업증명서, 
+- 지원자 본인 초본 1부
+이 외에 추가적인 서류는 필요하지 않습니다.</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>0.2360845644095393</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>提供的信息中没有明确提到2024年在普通入学考试(정시모집)中的低收入机会均等招生类型。因此，根据现有信息无法确定是否取消了该类型的招生。
+不过，如果要获取最准确的信息，建议直接访问以下网站进行确认：
+https://ipsi.deu.ac.kr/main.do
+或者联系学校招生办公室以获得最新的官方通知和政策更新。</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>0.1866757215354769</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>2.5등급은 등급점수로 표현할 때 115점입니다 (평균적으로). 수능 영어영역 등급에 따른 점수 표에서 확인할 수 있습니다.
+만약 사탐(사회탐구 또는 과학탐구 또는 직업탐구 중 2개 과목)의 평균이 2.5등급인 경우, 이는 115점으로 반영됩니다. 절사되는 것은 아닙니다. 즉, 2.5등급은 그대로 115점을 받게 됩니다.
+따라서, 사탐 2 과목의 평균이 2.5등급이라면, 이는 115점으로 반영되어 합격 점수 계산에 사용됩니다.</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>0.1877777864241156</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>2024년 정시 충원 합격자 발표는 총 3차로 이루어집니다.
+1. **1차 충원 합격자 발표**: 2024년 2월 14일 (수) 09:00
+2. **2차 충원 합격자 발표**: 2024년 2월 15일 (목) 09:00
+3. **3차 이후 충원 합격자 발표**: 2024년 2월 15일 (목) 19:00 ~ 2024년 2월 20일 (화) 18시까지
+각 차례별로 합격자 발표가 이루어지고, 학생들은 홈페이지에서 개별적으로 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행으로 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>0.3478640899854194</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>2024학년도의 정시 모집에 대한 자세한 정보를 제공하기 위해서는 몇 가지 요소를 고려해야 합니다.
+1. **모집단위와 경쟁률**: e비즈니스학과의 모집인원, 지원 인원, 그리고 경쟁률을 확인해야 합니다. 예를 들어, 만약 모집인원이 10명이고 지원 인원이 89명이라면 경쟁률은 매우 높습니다.
+2. **성적 평균 및 분산**: 제공된 데이터에서 e비즈니스학과의 최초합격자들의 수능 성적을 확인할 수 있습니다. 예를 들어, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 308.58이며, 표준 편차는 10.96입니다.
+3. **성적 위치**: 제공된 평균과 분산을 바탕으로, 수능 성적이 4.6이면 이 점수는 어느 정도의 위치에 있는지 확인해야 합니다. 예를 들어, 표준 변환 점수가 308.58이고 표준 편차가 10.96이라면, 4.6은 평균보다 상당히 낮습니다.
+4. **전형요소**: e비즈니스학과의 전형요소 반영 비율을 확인해야 합니다. 현재 정보에서는 수능 성적이 100% 반영되는 것으로 보입니다.
+5. **경쟁률 및 충원 합격자**: 최종 등록자의 경쟁률과 충원 합격자를 확인하여, 추가로 지원할 경우의 가능성도 판단해야 합니다.
+따라서, 수능 성적이 4.6이라면 이 점수는 평균보다 상대적으로 낮은 위치에 있으므로, 정시 전형으로 추가 합격하기 위해서는 다음과 같은 조건을 충족해야 할 것입니다:
+- 모집인원이 많지 않아 경쟁률이 낮아야 합니다.
+- 지원자의 수가 적어야 합니다.
+따라서, 현재 정보만으로는 확실한 답변을 드리기 어렵습니다. 정확한 판단을 위해서는 해당 단과대학의 2024학년도 모집요강 및 최종 등록자 성적 등을 확인하시거나, 입학처에 직접 문의하시는 것이 좋습니다.
+[입학처 웹사이트](https://ipsi.deu.ac.kr/main.do)를 참조하여 자세한 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>0.2738047863737899</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 e비즈니스학과의 경쟁률은 10.56이며, 충원 합격자는 33명입니다. 지원자의 등급 평균은 3.88이고, 표준 편차는 0.14입니다.
+등급 5.3은 등급 평균보다 약간 높습니다. 그러나 e비즈니스학과의 경쟁률이 매우 높기 때문에, 단순히 등급만으로 최초 합격을 보장받기는 어렵습니다. 등급뿐만 아니라 수능 영역별 표준점수, 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합 등의 요소도 고려됩니다.
+등급 5.3은 상당히 높은 등급이며, 이는 경쟁률이 높은 e비즈니스학과에서 최초 합격 가능성은 있지만, 확실한 것은 아닙니다. 지원자의 총점이나 다른 평가 요소들이 중요하게 작용할 수 있습니다.
+따라서, 정확한 최초 합격 가능성을 판단하기 위해서는 지원자의 전체 성적을 고려해야 합니다. 만약 등급이 높더라도 경쟁률이 매우 높은 만큼, 추가적인 준비와 노력이 필요할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>0.1833121702957639</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>2024학년도 입시 정보를 바탕으로 분석해보겠습니다. 하지만 정확한 예비합격 가능성 판단을 위해서는 여러 요소들을 고려해야 합니다:
+1. **경쟁률**: e비즈니스학과의 경쟁률은 매우 높습니다. 지원 인원이 많고 모집인원이 적기 때문에, 평균적인 점수보다 더 높은 점수가 필요할 수 있습니다.
+2. **점수 분포**:
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 308.58
+   - 영어 등급의 평균: 3.66
+   - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균: 426.25
+3. **자기소개서 및 면접**: e비즈니스학과는 실무 경험이나 관련 활동 경험 등을 중요하게 평가하기 때문에, 자기소개서와 면접에서 좋은 성적을 받는 것이 중요합니다.
+4. **전형별 특성**:
+   - 가군 수능(일반학생전형): 수능 점수가 주요 요인
+   - 나군 수능(일반학생전형): 수능 점수와 서류, 면접 등이 복합적으로 평가됨
+5. **추천서 및 추천사**: 일부 전형에서는 추천서나 추천사를 요구하기 때문에 이도 고려해야 합니다.
+현재 정보만으로 판단하면 38명 중에서 예비합격 가능성은 높지 않을 것으로 보입니다. 평균 점수보다 약간 높아야 할 것 같습니다. 하지만 최종 결정을 내리기 위해서는:
+- 정확한 지원자들의 점수 분포를 확인해야 합니다.
+- 자기소개서와 면접 준비가 잘 되어 있는지 확인해야 합니다.
+추천드리면, 입학사정관의 평균 점수보다 약간 높은 수준에서 지원하는 것이 좋을 것 같습니다. 또한, 자기소개서와 면접 준비를 철저히 해두는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>0.008359265539236514</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>3.44 등급으로 동의대학교 간호학과에 합격할 확률은 낮지만, 불가능한 것은 아닙니다. 간호학과는 경쟁률이 높은 곳이므로, 성적 외 요소들이 중요하게 작용합니다.
+1. **성적**: 3.44 등급은 평균 이상의 점수입니다. 하지만 동의대학교 간호학과의 경우, 지원 인원이 많아 경쟁률이 높습니다. 평균적인 성적이지만, 다른 요소들이 잘 보완되면 가능성이 있습니다.
+2. **학생부**: 학생부 종합평가에서 공동체역량, 학업역량, 전공적합성 등 다양한 영역을 평가합니다. 활동 기록이나 진로 탐색 과정이 뛰어나다면 이점이 반영될 수 있습니다.
+3. **면접**: 면접에서도 지원자의 적성을 평가합니다. 자신감 있는 답변과 전공에 대한 열정을 보여주면 긍정적인 점수를 받을 수 있습니다.
+4. **추천서 및 자기소개서**: 추천서나 자기소개서에서 자신의 장점과 특기를 잘 표현하면 도움이 될 수 있습니다.
+5. **기타 활동**: 봉사활동, 동아리 활동 등 다양한 경험을 통해 얻은 역량을 강조할 수 있습니다.
+결론적으로, 3.44 등급으로도 합격 가능성은 있지만, 성적 외 요소들이 중요하게 작용합니다. 지원서 작성 시 각 영역에서 잘 준비하고, 면접에서도 자신감 있게 대응한다면 좋은 결과를 얻을 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>0.05864039848523162</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>2.52라는 점수는 수능 영어 등급으로 보이는데, 동의대학교 간호학과에 대한 정보를 보면 다음과 같습니다:
+- 모집인원: 22명
+- 지원인원: 145명
+- 경쟁률: 6.59
+- 충원 합격 (후보순위): 37명
+수능 4개 영역 등급의 평균은 3.12이며, 표준 편차는 0.21입니다.
+2.52라는 점수가 4등급에 해당합니다. 간호학과의 수능 영어 등급 평균은 1.86이고, 표준 편차는 0.75입니다. 이 점수는 상대적으로 낮은 범위에 속하므로, 경쟁률이 높고 평균점수가 낮은 영어 등급을 가지고 있다면 합격 가능성은 낮아 보입니다.
+하지만 정시 모집에서 성적이 중요한 것은 아니며, 서류평가와 면접 등의 비중도 크기 때문에, 다음과 같은 요소들이 중요합니다:
+1. **서류평가**: 공동체역량, 학업역량, 전공적합성 등이 평가됩니다.
+2. **면접**: 지원동기 및 학업계획, 학업역량, 전공적합성 등을 평가받습니다.
+따라서, 2.52라는 점수만으로는 확실한 합격을 보장할 수 없습니다. 하지만 적극적인 서류 준비와 면접 대비를 통해 합격 가능성은 높일 수 있습니다. 
+추천 사항:
+- **서류 준비**: 학업역량과 전공적합성을 잘 보여줄 수 있는 증거를 첨부하십시오.
+- **면접 준비**: 지원동기와 학업계획, 그리고 간호학과에 대한 열정을 잘 표현할 수 있도록 준비하십시오.
+결론적으로, 2.52라는 점수만으로는 낮은 확률이지만, 적극적인 준비를 통해 합격 가능성은 높일 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>0.02314385618857657</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>3.7의 평균적인 성적을 가진 경우에도 간호학과에 합격하는 것은 가능하지만, 확률은 높지 않을 수 있습니다. 간호학과는 일반적으로 높은 경쟁률을 가지고 있으며, 특히 간호학과 교직 인증 과정은 더욱 치열합니다.
+다음은 몇 가지 고려해야 할 사항입니다:
+1. **전형 유형**: 간호학과의 경우, 실기/실적 위주 전형이 일반적으로 많이 사용됩니다. 따라서 수능 점수보다는 실기 성적이 중요할 수 있습니다.
+2. **실기 성적**: 실기 성적을 확인해보세요. 만약 실기가 높다면 이 부분에서 유리한 점을 살릴 수 있습니다.
+3. **추천서 및 자기소개서**: 일부 학교에서는 추천서나 자기소개서를 요구할 수 있으므로, 이러한 자료가 준비되어 있다면 활용해보세요.
+4. **특기사항**: 특기사항이나 활동 경력이 뛰어난 경우 이를 강조하면 도움이 될 수 있습니다.
+5. **출결 및 교과 성적**: 출결 기록과 교과 성적이 좋은 경우, 서류평가에서 유리할 수 있습니다.
+6. **면접 준비**: 면접에서도 긍정적인 인상을 주는 것이 중요합니다. 간호사로서의 역량과 열정을 잘 표현해야 합니다.
+7. **추천서**: 가능하다면 교사나 관련 전문가로부터 추천서를 받는 것도 도움이 될 수 있습니다.
+결론적으로, 3.7의 성적만으로는 어렵게 합격할 가능성은 낮지만, 실기 성적이 높거나 특별한 경험이 있다면 기회는 열려 있을 수 있습니다. 전형 유형과 요구 사항을 잘 파악하고 준비를 철저히 하는 것이 중요합니다.
+추가적으로, 동의대학교 입학 홈페이지(https://ipsi.deu.ac.kr/main.do)에서 최신 정보와 자세한 안내를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>0.02144242083166326</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 정시 모집인원은 110명이며, 지원 인원이 145명으로 경쟁률이 높습니다. 최종등록자의 평균 성적을 보면 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 353.48입니다.
+당신의 성적이 2.58이라면, 이는 표준점수로 환산하면 대략 100점대 중반에서 낮은 110점대 초반 정도가 됩니다. 이 점수가 간호학과의 평균 성적(353.48)에 비해 상당히 낮습니다.
+따라서, 현재 정보만으로는 정시로 합격하기 어려울 것으로 보입니다. 하지만 다음과 같은 요인들을 고려해야 합니다:
+1. **경쟁률**: 6.59의 경쟁률을 감안하면, 성적이 높은 지원자가 많습니다.
+2. **개별 평가**: 서류와 면접 등에서 우수한 평가를 받으면 합격 가능성은 높아질 수 있습니다.
+3. **추천서 및 특기사항**: 추천서나 특기사항 등을 잘 준비하면 점수 외에도 긍정적인 인상을 줄 수 있습니다.
+결론적으로, 현재 성적만으로는 낮은 확률로 합격할 것으로 보입니다. 하지만 서류와 면접 등에서 우수한 평가를 받으면 가능성이 열리게 될 수 있으므로, 준비를 철저히 해보시는 것이 좋겠습니다.
+추천 드리는 조언:
+- **서류 준비**: 지원 자소서와 추천서 등을 잘 작성해 학교생활과 성격을 잘 표현하세요.
+- **면접 준비**: 면접 질문에 대한 답변을 미리 준비하고, 간호사로서의 열정과 적합성을 잘 전달할 수 있도록 하세요.
+더 궁금하신 점이 있으시다면, [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)를 참조하시거나 학교 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>0.02315338862569793</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>2024년도 해당 학과와 모집인원, 지원자 수 등을 고려해보겠습니다.
+- **게임공학과**:
+  - **모집 인원**: 3명
+  - **지원 인원**: 16명
+  - **경쟁률**: 5.33
+이렇게 높은 경쟁률을 보여주고 있습니다. 게임공학과는 인기 학과로, 지원자가 많아 경쟁이 치열합니다.
+**붙을 확률**:
+- 경쟁률이 매우 높기 때문에, 좋은 성적과 서류 준비가 필수입니다.
+- 수능 점수와 면접 성적이 중요할 것입니다. 특히 수능에서 국어 + 수학 + 탐구(2개)의 표준 변환 점수가 평균 303.05이고, 영어 등급이 평균 3.25라는 것을 고려하면, 지원자의 성적도 높아야 합니다.
+- 서류와 면접에서도 학업역량과 전공적합성을 잘 보여줘야 합니다.
+**추천 사항**:
+1. **성적 준비**: 수능을 꼼꼼히 준비하고, 특히 국어 + 수학 + 탐구(2개)의 성적이 높아야 합니다.
+2. **서류 준비**: 학교생활기록부와 서류심사 기준에 맞춰 잘 준비해야 합니다.
+3. **면접 준비**: 지원동기와 학업계획, 전공적합성 등을 잘 준비해 면접에서 좋은 평가를 받도록 하세요.
+이런 점들을 잘 준비한다면 붙을 확률은 높아질 것입니다. 자세한 정보는 입학 안내 홈페이지나 대입 지원 사이트를 확인하시거나, 학교 관계자에게 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>0.01204970996823929</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 게임공학과의 경우, 수능 최종등록자의 경쟁률이 5.33이며, 충원 합격자는 3명입니다. 평균 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합은 424.05이고, 평균 수능 4개 영역 (가산점 포함) 표준 변환 점수 합은 424.05입니다.
+당신의 수능 성적이 4.16이라면, 이는 표준 변환 점수로 환산되어야 합니다. 하지만 정확한 표준 변환 점수를 제공하지 않았기 때문에, 일반적으로 평균 점수와 비교하여 경쟁률을 예측할 수 있습니다.
+현재의 정보만으로 추정하면:
+1. 당신의 성적이 424.05보다 약간 낮으므로, 충원 합격자들 중 일부는 당신보다 높은 점수를 받았을 가능성이 있습니다.
+2. 그러나 경쟁률이 5.33이고, 충원 합격자는 3명이라는 점에서, 추가 합격 가능성은 낮아 보입니다.
+따라서, 추가 합격을 받기 위해서는:
+- 다른 전형(예: 나군, 다군 등)을 준비해야 합니다.
+- 다른 대학이나 전공의 경쟁률과 충원 합격자를 확인하여 지원할 수 있습니다.
+결론적으로, 현재 정보로만 판단하면 추가 합격 가능성은 낮아 보입니다. 더 많은 정보와 다양한 전형을 고려하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>0.09183923851846812</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>2024학년도 동일 모집단위의 경쟁률, 평균 점수 등을 고려해보겠습니다.
+주어진 정보:
+- 단과대학: ICT융합공과대학
+- 모집단위: 게임공학과 또는 영화학과 (예시로 들어갑니다)
+- 지원 인원 및 경쟁률: 예를 들어, 지원 인원이 16명이고 경쟁률이 5.33일 때 평균 점수가 303.05였습니다.
+- 지원자의 성적: 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 303.05였습니다.
+경쟁률과 평균 점수가 주어진 예시를 바탕으로 판단해보겠습니다:
+1. **평균 점수와 지원 인원**: 
+   - 예시에서 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 303.05였습니다.
+   - 지원자의 성적인 3.75는 이보다 높습니다.
+2. **경쟁률**:
+   - 예시에서 경쟁률이 5.33이었습니다.
+   - 이는 상대적으로 낮은 경쟁률을 의미합니다.
+3. **성적 평균과 지원자 성적 비교**:
+   - 지원자의 성적이 3.75로, 예시의 평균 점수인 303.05보다 높습니다.
+   - 이는 상대적으로 좋은 성적을 보여줍니다.
+따라서, 경영정보학과에서 정시 성적 3.75라면, 해당 단과대학 및 모집단위의 예시를 바탕으로 보면 최초등록자로 선발될 가능성이 높습니다. 그러나 최종 결정은 입학사정관들의 평가와 경쟁률 등 여러 요인에 따라 달라질 수 있으므로, 정확한 확신을 가질 수는 없습니다.
+추천 사항:
+- 해당 단과대학 및 모집단위의 최종 성적 기준을 확인하세요.
+- 입학사정관들의 평균 점수와 경쟁률 등을 참고하여 판단하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>0.03243759696128259</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 경영정보학과에 대한 정보를 바탕으로 답변드리겠습니다.
+1. **성적 기준**: 
+   - 경영정보학과는 수능 성적이 4.2 이상이면 충분히 최초합격 가능성이 있습니다.
+2. **전형별 평균 성적**:
+   - 예를 들어, 가군 수능(일반학생전형)에서 경영정보학과의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 317.77입니다.
+   - 이는 4.2라는 성적이 상대적으로 높은 편이므로, 최초합격 가능성은 있습니다.
+3. **경쟁률**:
+   - 경영정보학과의 경우, 지원 인원과 모집인원을 고려하면 4.2 이상의 성적은 충분히 경쟁력을 갖추고 있을 것입니다.
+4. **최종 등록자 성적**:
+   - 최종등록자의 평균 점수는 303.05로, 이보다 높은 성적이면 최초합격 가능성이 큽니다.
+따라서, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합이 4.2 이상이라면 경영정보학과의 최초합격 가능성은 높습니다. 하지만 정확한 확률을 알기 위해서는 해당 전형의 지원 인원과 모집인원, 그리고 다른 지원자의 성적 분포를 고려해야 합니다.
+추가적으로, 학교생활기록부와 면접 등 다른 평가 요소도 중요하므로, 이 부분에서도 최선을 다하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>0.0669995370634198</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 경영정보학과의 경우, 최종등록자의 평균 경쟁률이 10.56이며, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 313.13입니다. 이는 상당히 높은 수치로 보아, 성적이 5.33인 경우 경쟁률이 매우 높고 입학사정관 심사를 통과해야 하는 조건을 충족시키기 어렵다고 볼 수 있습니다.
+하지만 정확한 합격 가능성 판단을 위해서는 다음과 같은 요소들을 고려해야 합니다:
+1. **성적 평균**: 313.13이라는 평균 점수가 매우 높습니다. 성적이 5.33이라면, 이는 평균보다 상당히 낮은 수준입니다.
+2. **전형요소**: 경영정보학과의 경우 학생부종합 전형도 함께 진행되므로, 학생부와 면접 등 다른 요소들도 고려되어야 합니다.
+3. **면접 및 서류 평가**: 면접과 서류 평가는 학업역량, 전공적합성 등을 종합적으로 판단하기 때문에, 이 부분에서 좋은 점수를 받는 것이 중요합니다.
+4. **입학사정관의 평가**: 입학사정관이 지원자의 전반적인 능력과 적합성을 평가하므로, 지원자가 경영정보학과에 대한 진심어린 관심과 열정을 보여줄 수 있어야 합니다.
+따라서 성적이 5.33이라면 합격 가능성은 매우 낮다고 볼 수 있습니다. 하지만 모든 요소를 종합적으로 고려해야 하므로, 지원자는 다음과 같은 준비를 해보는 것이 좋습니다:
+- **학생부 작성**: 진로와 전공에 대한 열정을 잘 보여줄 수 있는 내용을 포함시킵니다.
+- **면접 준비**: 면접에서 지원동기와 학업계획, 전공적합성 등을 명확하게 설명할 수 있도록 준비합니다.
+결론적으로, 성적이 5.33이라면 경영정보학과에 합격하기는 어렵지만, 최선을 다해 지원하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>0.01538482401282858</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 바이오응용공학부의 경우, 정시 모집군과 지원 자격, 학생들의 성적 분포 등을 고려해 답변을 드리겠습니다.
+1. **정시 모집군**: 
+   - 2023년에는 바이오의약공학과 (다)로 모집되었으나, 2024년에는 바이오의약공학과 (나)로 변경되었습니다.
+   - 이에 따라 지원 자격과 학생들의 성적 분포가 달라질 수 있습니다.
+2. **성적 평균 및 분산**:
+   - 최종등록자에서 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 427.00이며, 표준 편차는 11.25입니다.
+   - 최초등록자에서 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 432.67이며, 표준 편차는 6.24입니다.
+3. **성적 비교**:
+   - 성적이 3.33이라면, 이는 대략 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균보다 낮습니다.
+   - 그러나 표준 편차를 고려하면, 성적이 400점대 초반까지는 상당히 넓은 범위 내에 위치할 수 있습니다.
+4. **경쟁률 및 모집인원**:
+   - 바이오의약공학과 (나)의 경우, 정원 내 모집 인원은 21명이며, 지원 인원은 36명으로 경쟁률이 높습니다.
+   - 이에 따라 성적이 조금 낮더라도, 학생부 종합 평가 등 다른 요소들이 중요하게 작용할 수 있습니다.
+5. **학생부 종합 평가**:
+   - 동의대학교는 학생부 종합 평가를 중점적으로 고려하므로, 성적이 조금 낮더라도 학생부에서 뛰어난 활동이나 성과가 있다면 충분히 가능할 수 있습니다.
+결론적으로, 3.33 정도의 성적만으로는 확실한 보장은 어렵지만, 학생부 종합 평가를 잘 준비하고 지원한다면 바이오응용공학부 최초등록자로 선발될 가능성은 있습니다. 자세한 정보와 전략을 마련하여 지원하시길 권장드립니다.</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>0.02237532233371783</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>2024학년도에 방사선학과의 모집요강을 확인해보겠습니다. 하지만 현재 제공된 정보만으로는 정확한 답변을 드리기 어렵습니다. 방사선학과의 모집요강은 학과 분야와 전형방법, 성적 기준 등이 다양하게 다를 수 있습니다.
+일반적으로 방사선학과의 경우 다음과 같은 특징이 있을 수 있습니다:
+1. **전형 방법**: 일반적으로는 수능 중심으로 모집하는 경우가 많습니다.
+2. **성적 기준**: 고등학교 졸업예정자나 검정고시 학생을 대상으로 하며, 국어, 수학, 영어 등 주요 과목의 성적이 중요합니다.
+제공된 정보를 바탕으로 다음과 같은 점들을 고려해볼 수 있습니다:
+- **성적 평균**: 제공된 데이터에서 방사선학과와 관련된 정보가 없으므로, 일반적인 인문사회과학대학의 국어, 수학, 영어 등급 평균을 참고할 수 있습니다. 예를 들어, 국어 4.12, 수학 3.59, 영어 4.08 등의 평균이 주어졌다면, 현재 성적(국어 4.4)은 상대적으로 높습니다.
+- **성적 표준 편차**: 제공된 데이터에서 방사선학과의 성적 표준 편차 정보가 없으므로, 일반적인 인문사회과학대학의 성적 표준 편차를 참고할 수 있습니다. 예를 들어, 0.59 등이 주어졌다면, 현재 성적은 평균보다 약간 높습니다.
+따라서, 현재 성적이 방사선학과에 충분히 경쟁력 있을 것으로 보입니다. 하지만 정확한 답변을 위해서는:
+1. **방사선학과의 모집요강 확인**: 공식 입학처 웹사이트(https://ipsi.deu.ac.kr/main.do)를 통해 해당 학과의 최신 모집요강을 확인해보세요.
+2. **성적 기준 확인**: 방사선학과의 성적 기준, 특히 국어, 수학, 영어 등 주요 과목의 성적 기준을 확인하세요.
+추가적으로, 입시 전문가와 상담하거나, 해당 학과의 입학사정관에게 직접 문의하는 것도 좋은 방법입니다.</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>0.01511665987086197</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>2.66의 영어 등급은 방사선학과 정시 모집에서 상대적으로 낮은 점수입니다. 방사선학과는 보통 높은 영어 성적을 요구하는 경향이 있으므로, 이 점수로는 약간 위험할 수 있습니다.
+다음은 몇 가지 고려사항입니다:
+1. **평균 영어 등급**: 방사선학과의 평균 영어 등급을 확인해 보세요. 만약 평균이 3.0 이상이라면, 2.66은 약간 낮습니다.
+2. **전체 점수 평균**: 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균을 확인해 보세요. 만약 이 값이 350 이상이라면, 영어 등급은 약간 낮지만 다른 과목 성적이 높다면 큰 문제가 될 수 있습니다.
+3. **경쟁률**: 방사선학과의 경쟁률을 고려하세요. 경쟁률이 높으면, 조금 더 낮은 점수라도 합격할 가능성이 있습니다.
+4. **면접 및 서류 평가**: 면접이나 서류 평가에서 좋은 성적을 받았다면, 이는 총합에 긍정적인 영향을 줄 수 있습니다.
+5. **추천서와 자기소개서**: 추천서나 자기소개서에서 강점을 제시할 수 있다면, 이를 활용하여 합격 가능성 높이기에 도움이 될 수 있습니다.
+결론적으로 2.66은 약간 위험한 점수지만, 다른 과목 성적이 매우 높다면 합격 가능성이 있을 수 있습니다. 그러나 보다 안전한 쪽으로 준비하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>0.06574618798770099</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>3.66의 성적을 가지고 경찰행정학과 농어촌 전형에 지원하셨다면, 합격 가능성은 있습니다만, 확실한 것은 아닙니다. 다음과 같은 요소들을 고려해야 합니다:
+1. **전형 유형**: 농어촌학생전형은 일반적으로 교육적 배경이 약한 지역 출신 학생을 대상으로 하므로, 성적이 조금 낮더라도 합격 가능성은 있습니다.
+2. **성적 기준**: 각 전형별로 정해진 최저학력기준이 있으니, 해당 기준을 확인해야 합니다. 농어촌학생전형의 경우 일반적으로 평균적인 성적보다는 교육적 배경이나 기타 요인들이 더 중요하게 작용할 수 있습니다.
+3. **교과성적**: 전형요소 반영비율에서 학생부 교과성적이 100% 반영되는 경우, 성적이 중요한 역할을 합니다. 하지만 농어촌학생전형의 경우에는 교육적 배경이나 기타 요인들이 더 중요하게 작용하기도 합니다.
+4. **추천서 및 서류**: 추천서나 추가 제출서류가 있는 경우, 이들 자료가 합격에 큰 영향을 미칠 수 있습니다.
+5. **면접 성과**: 면접에서도 좋은 평가를 받으면 합격 가능성은 높아집니다.
+6. **동점자 처리 기준**: 동점자 처리 기준에서 국어, 수학, 영어 등 주요 과목의 성적이 중요하게 작용할 수 있습니다.
+따라서 3.66이라는 성적을 가지고 지원하셨다면, 합격 가능성은 있지만 확실하지 않습니다. 정확한 합격 가능성을 확인하려면 해당 대학의 최저학력기준과 동점자 처리 기준 등을 꼼꼼히 확인하시고, 추가 제출서류나 추천서 등이 있는 경우 준비해두시는 것이 좋습니다.
+추가적으로, 만약 불안하다면 "https://ipsi.deu.ac.kr/main.do" 링크를 통해 공식 홈페이지에서 더 자세한 정보를 확인하거나, 입학처에 문의하시는 것도 좋은 방법입니다.</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>0.07400671953580273</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>25번의 순위는 매우 높은 위치입니다. 하지만 정시 합격 가능성을 판단하기 위해서는 몇 가지 요소를 고려해야 합니다:
+1. 모집인원과 지원자 수: 해당 모집단위의 모집인원이 얼마나 되는지, 그리고 실제 지원자가 얼마나 되는지를 확인해야 합니다.
+2. 성적 및 경쟁률: 지원자의 평균 성적이 어느 정도인지, 그리고 자신의 성적이 그 중에서 어느 위치에 있는지를 파악해야 합니다.
+3. 전형요소 반영비율: 수능 비중이 높은 경우 수능 점수가 중요하게 작용할 수 있습니다.
+4. 학교별 특성: 일부 대학에서는 특정 전형 요소가 더 강조될 수 있으므로, 해당 대학의 특성을 고려해야 합니다.
+5. 동점자 처리 기준: 만약 동점자가 발생하면 어떻게 처리되는지 확인해야 합니다.
+현재 정보만으로는 확실한 답변을 드리기 어렵습니다. 하지만 25번은 매우 높은 순위이므로, 합격 가능성은 낮다고 볼 수 있습니다. 그러나 최선을 다해 준비하고, 가능한 모든 점수를 얻어보는 것이 중요합니다.
+추가 정보나 자세한 분석이 필요하시다면, 해당 대학의 입학처 웹사이트나 전화로 문의하시는 것을 추천드립니다. 또한, 학원이나 입시 컨설팅 서비스도 도움이 될 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>0.1336070892630701</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 법경찰행정학부에 대한 정보를 바탕으로 답변 드리겠습니다.
+1. **전형별 평균 성적**:
+   - 정시모집군 (가) : 영어영문학과, 경찰학과 등이 모집군 변경됨.
+   - 정시모집군 (나) : 호텔컨벤션경영학과, 로봇자동화공학과 등이 모집군 변경됨.
+2. **법경찰행정학부의 평균 성적**:
+   - 동의대학교 법경찰행정학부는 2024년도 정시모집군 (가)로 분류되어 있습니다.
+   - 이전 년도와 비교하여, 법경찰행정학부의 경우 평균적으로 대략적인 성적 범위를 다음과 같이 예측할 수 있습니다.
+3. **안정권과 문 닫고 들어갈 수 있는 평균 성적**:
+   - **문 닫고 들어가기 위한 평균성적**: 1등급 (4등급 이상)을 받는 경우입니다.
+   - **안정권 평균성적**: 대략적으로 국어, 수학, 영어 등 주요 과목의 3등급 이상을 받는 것이 안정권으로 볼 수 있습니다.
+4. **2024년도 동의대학교 법경찰행정학부에 대한 예측**:
+   - **문 닫고 들어가기 위한 평균성적**: 대략적으로 1등급 (4등급 이상)을 받는 경우입니다.
+   - **안정권 평균성적**: 국어, 수학, 영어 등 주요 과목의 3등급 이상을 받는 것이 안정권으로 볼 수 있습니다.
+따라서, 동의대학교 법경찰행정학부에 정시로 들어가려면 다음과 같은 평균 성적을 받으면 안정권이거나 문 닫고 들어갈 수 있을 것으로 예측할 수 있습니다:
+- **문 닫고 들어가기 위한 평균성적**: 1등급 (4등급 이상)을 받는 경우입니다.
+- **안정권 평균성적**: 국어, 수학, 영어 등 주요 과목의 3등급 이상을 받는 것이 안정권으로 볼 수 있습니다.
+이 예측은 이전 년도와 비교하여 법경찰행정학부가 정시모집군 (가)로 분류되어 있다는 점을 고려한 것입니다. 실제 성적은 입시 경쟁과 관련된 여러 요인에 따라 변동될 수 있으므로, 최종 결정을 내릴 때는 해당 년도의 입시 경쟁 상황 등을 종합적으로 고려해야 합니다.
+참고로, 동의대학교 법경찰행정학부는 2024년도 정시모집군 (가)로 분류되어 있습니다. 이전 년도와 비교하여 성적 기준을 예측할 수 있으므로, 최종 결정을 내릴 때는 해당 년도의 입시 경쟁 상황 등을 종합적으로 고려해야 합니다.
+이 답변은 2024년도 동의대학교 법경찰행정학부에 대한 예측 정보를 바탕으로 한 것입니다. 실제 성적 기준은 이전 년도와 비교하여 변동될 수 있으므로, 최종 결정을 내릴 때는 해당 년도의 입시 경쟁 상황 등을 종합적으로 고려해야 합니다.
+감사합니다!</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>0.2132253531211576</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 보육가정상담학과에 대한 정보를 바탕으로 답변드리겠습니다.
+보육가정상담학과는 아동학과로 분리되었습니다. 따라서, 2024학년도부터는 아동학과로 지원해야 합니다.
+아동학과의 최초합격자와 최종등록자의 성적 분석을 보면 다음과 같습니다:
+1. **최초합격자**:
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 303.05
+   - 영어 등급의 평균: 3.25
+2. **최종등록자**:
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 251.82
+   - 영어 등급의 평균: 5.68
+이러한 분석을 바탕으로, 정시 산출 등급이 5.33인 경우는 다음과 같은 점들을 고려해야 합니다:
+- **국어 + 수학 + 탐구(2개) 표준 변환 점수 합**: 
+  - 최초합격자 평균: 303.05
+  - 최종등록자 평균: 251.82
+- **영어 등급**:
+  - 최초합격자 평균: 3.25
+  - 최종등록자 평균: 5.68
+정시 산출 등급이 5.33인 경우, 영어 등급은 상대적으로 높지만, 국어 + 수학 + 탐구(2개) 표준 변환 점수 합에서는 최초합격자 평균보다 낮습니다.
+따라서, 정시 산출 등급이 5.33인 경우에도 합격 가능성은 있습니다만, 경쟁률과 모집 인원을 고려하면 상대적으로 낮은 점수로 합격하기는 어렵다고 볼 수 있습니다. 
+추천되는 조치:
+1. **영어 실력 강화**: 영어 등급이 높은 경우 이를 활용하여 지원 가능성을 높일 수 있습니다.
+2. **추가 지원**: 다른 대학이나 전형을 함께 준비하는 것이 좋습니다.
+결론적으로, 정시 산출 등급 5.33으로는 합격 가능성은 있으나, 경쟁률과 모집 인원을 고려하면 낮은 점수로 합격하기는 어렵다고 볼 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>0.04623833065200777</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 경우, 충원 합격자 발표 및 등록 일정이 다음과 같습니다:
+- **충원 합격자 3차 발표**: 2024. 02. 15.(목) 09:00
+- **충원 합격자 3차 등록**: 2024. 02. 15.(목) 09:00~16:00
+당시 충원 합격자는 3명이었고, 예비 12번을 받았다는 점에서, 이는 후보 순위 중 상위에 위치한 것으로 보입니다. 
+충원 합격자 발표 및 등록 일정은 이미 지났으므로, 현재까지의 정보로는 직접적인 합격 가능성 판단이 어렵습니다. 하지만 예비 12번을 받았다는 것은 좋은 신호이며, 일반적으로 후보 순위가 높다면 충원 합격 가능성은 있습니다.
+만약 아직 등록 기간이 남아 있다면, 해당 단과대학의 입학관리팀에 문의하여 최신 정보를 확인하는 것이 좋습니다. 또한, 다른 전형이나 대학에서도 지원을 고려해 보는 것도 좋은 방법입니다.
+추가적으로, 동의대학교의 합격률과 경쟁률 등을 참고하면 더 정확한 판단이 가능할 것입니다. 관련 웹사이트나 입학 안내 센터를 통해 최신 정보를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>0.3967062952810222</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>4.75라는 성적은 매우 높은 점수입니다. 대부분의 대학에서 수능 성적이 98점 이상이면 4.0을 넘어서게 됩니다. 따라서 4.75는 상당히 뛰어난 성적이라고 볼 수 있습니다.
+유아교육학과에 입학하기 위해서는 다음과 같은 요소들을 고려해야 합니다:
+1. **성적**: 매우 높은 성적이 유리합니다.
+2. **전형 방식**: 각 대학의 전형 방식이 다릅니다. 일부 학교에서는 수능 성적이 주요 평가 기준이 될 수 있습니다.
+3. **학생부 종합전형**: 이 경우 학생부, 면접 등 다양한 요소를 고려합니다.
+4. **특기사항 및 활동**: 창의적 체험활동, 진로활동 등이 중요할 수 있습니다.
+유아교육학과는 일반적으로 인문사회계열이고, 교직 관련 전공으로서 학생부와 면접에서 좋은 평가를 받을 가능성도 높습니다. 그러나 유아교육은 사회적 요구가 높고, 실무 능력이 중요하기 때문에, 실제 입학 가능성을 판단할 때는 다음과 같은 점들을 고려해야 합니다:
+- **학교별 전형 방식**: 각 대학의 정원내/외 전형 비율과 평균 성적 등을 확인하세요.
+- **면접 및 서류평가**: 면접에서 좋은 인상을 주고, 학생부에서 실력이 잘 나타나야 합니다.
+- **특기사항**: 창의적 체험활동이나 관련 활동 경험이 있다면 이점이 될 수 있습니다.
+결론적으로 4.75라는 성적이 매우 유리하지만, 최종 결정은 학교별 전형 방식과 입학사정관들의 평가에 따라 달라질 수 있으므로, 여러 대학의 정보를 꼼꼼히 확인하고 지원하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>0.1842428136241796</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 정시모집에서 보육가정상담학과의 경쟁률과 지원자들의 등급 분포를 고려해보겠습니다.
+1. **경쟁률 및 지원 인원**:
+   - 보육가정상담학과는 2024학년도에 신설된 학과로, 정확한 경쟁률 정보가 제공되지 않았습니다.
+   - 하지만 일반적으로 신설 학과의 경우 초기에는 지원자가 많지 않을 가능성이 있습니다.
+2. **등급 분포**:
+   - 동의대학교의 2024학년도 수능 평균 등급은 대략 3.5~4.0 정도로 추정됩니다.
+   - 보육가정상담학과는 일반학생전형으로 지원되므로, 이 학과의 지원자들의 등급 분포를 고려해야 합니다.
+3. **등급 비교**:
+   - 당신의 동의대학교 정시 환산등급이 4.16입니다.
+   - 이 등급은 대체로 상당히 높은 수준이며, 대부분의 학과에서는 좋은 성적을 보여줍니다.
+4. **추정 합격 가능성**:
+   - 현재 정보만으로 추론하면, 당신의 4.16등급은 보육가정상담학과에서도 충분히 경쟁력을 갖추고 있을 것으로 예상됩니다.
+   - 하지만 신설 학과인 만큼 지원자가 많지 않을 경우, 경쟁률이 낮아질 수 있습니다.
+5. **결론**:
+   - 4.16등급은 보육가정상담학과에서 충분히 좋은 성적을 보여줄 것으로 예상되며, 추합까지 고려하면 합격 가능성은 높습니다.
+   - 하지만 최종 결정은 입시 결과와 지원자의 전체적인 경쟁력을 포함하여 판단해야 합니다.
+추천되는 조치:
+- **추합 정보 확인**: 동의대학교의 공식 홈페이지나 입학처에 연락하여 보육가정상담학과의 정확한 모집인원 및 지원자 수를 확인해보세요.
+- **예비 지원**: 다른 학과도 함께 예비 지원을 고려해보는 것이 좋습니다. 다양한 선택지를 두고 준비하면 안전성을 높일 수 있습니다.
+추후에 더 자세한 정보가 제공되면, 좀 더 정확한 판단이 가능할 것입니다.</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>0.02202967953391923</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어융합학과를 정시로 지원하려는 경우, 다음과 같은 정보가 도움이 될 것입니다.
+1. **모집단위 및 모집인원**: 
+   - 단과대학은 ICT융합공과대학입니다.
+   - 모집단위는 소프트웨어공학부이며, 모집 인원은 30명입니다.
+2. **경쟁률 및 합격 평균 등급**:
+   - 최종등록자 경쟁률: 4.87
+   - 최초합격자 경쟁률: 4.87 (동일)
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균:
+     - 최종등록자: 317.87
+     - 최초합격자: 330.11
+3. **성적 및 등급**:
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 대략 315-330 사이입니다.
+   - 영어 등급: 평균적으로 3.77-4.13 정도 필요할 것으로 보입니다.
+따라서, 소프트웨어융합학과를 정시로 지원하려면 다음과 같은 성적을 갖추는 것이 좋습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균 315 이상
+- 영어 등급: 4.0 이상 추천
+이러한 성적을 갖추고 지원한다면 경쟁률을 고려할 때 충분히 합격 가능성은 있습니다. 그러나 최종 결정은 입학사정관들의 심사를 통해 이루어지므로, 개인의 특성과 활동 등도 중요한 요소로 작용할 수 있습니다.
+더 자세한 정보나 추가 지원 전략이 필요하시다면, [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)를 참조하거나 대학 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>3.461059286489051e-11</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 경우, 정원외 모집에서 서류평가와 면접평가가 함께 이루어지며, 각각의 영역에 대한 평가비율은 다음과 같습니다:
+- **서류평가**:
+  - 공동체역량: 최대 120점
+  - 학업역량: 최대 240점
+  - 전공적합성: 최대 240점
+- **면접평가**:
+  - 학업역량: 문제해결능력에 대한 평가
+  - 전공적합성: 진로정보 탐색능력에 대한 평가
+따라서, 서류평가에서 가장 중요한 부분은 **학업역량과 전공적합성**의 세부사항입니다. 특히 학업역량에서는 문제해결 능력을 강조하고, 전공적합성에서는 지원자의 관심과 이해도를 보여주는 것이 중요합니다.
+### 준비해야 하는 서류
+- **고교 졸업(예정)자**: 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- **검정고시 출신자**: 검정고시 합격증서 사본, 검정고시 성적증명서
+- **외국고교 졸업(예정)자**: 공증받은 외국고교 졸업(예정)증명서, 공증받은 외국고교 성적증명서 (아포스티유 확인 필요)
+### 세특 내용 준비
+- **공동체역량**:
+  - 협업능력: 학생 개인의 노력과 교사의 평가를 강조해야 합니다.
+- **학업역량**:
+  - 학업태도와 성취정도: 수업시간 참여, 성적 추이 등을 보여주어야 합니다.
+  - 세부능력 및 특기사항: 실제 경험을 기반으로 작성해야 합니다.
+- **전공적합성**:
+  - 열정과 지원 전공 관련 활동: 학교생활에서의 적극적인 참여와 관련 활동을 강조해야 합니다.
+### 주의사항
+- **학교생활기록부 작성**: 학생 개인이 작성한 내용은 교사의 분석 없이 단순히 기재하는 것은 피해야 합니다.
+- **과장된 내용**: 실제 경험과 괴리된 내용은 피해야 합니다.
+- **동일 내용의 반복 기재**: 같은 내용을 여러 번 반복 기재하지 않도록 주의해야 합니다.
+따라서, 세특 내용을 작성할 때는 실제 경험과 노력에 초점을 맞추고, 학교생활기록부와 서류평가에서 일관성을 유지하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>0.0009806654374494182</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 소프수기공학과의 경우, 최초합격자의 평균 수능 점수가 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 317.77
+- 영어 등급의 평균: 4.33
+당신의 수능 성적이 국어+수학+탐구(2개) 표준변환점수 합이 408이고, 영어 등급이 4.08이라면:
+1. **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 
+   - 당신의 점수가 평균보다 약간 낮습니다 (317.77 보다 90점 높음).
+2. **영어 등급**:
+   - 당신의 영어 등급이 평균보다 약간 낮습니다 (4.33 보다 0.25점 낮음).
+따라서, 수능 점수만으로는 최초합격자에 비해 약간 떨어지지만, 여전히 충분한 경쟁력을 가지고 있습니다. 
+**추천 사항:**
+1. **추가 지원**: 다른 학과나 전형을 함께 지원하여 보완할 수 있습니다.
+2. **면접 준비**: 면접에서도 자신의 강점과 열정을 잘 표현하면 도움이 될 수 있습니다.
+3. **서류 준비**: 서류 평가에서 좋은 점수를 받기 위해 노력해야 합니다.
+결론적으로, 가능성이 있지만 경쟁률이 높아 확실한 합격은 보장되지 않습니다. 꾸준히 준비하고 다양한 전략을 활용하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>0.1412748109699137</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어융합학과의 경우, 최종등록자와 최초합격자의 통계를 살펴보면 다음과 같은 특징이 있습니다:
+1. **최종등록자**:
+   - 모집인원: 30명
+   - 지원인원: 146명
+   - 경쟁률: 4.87
+   - 충원 합격 (후보순위): 63명
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 317.87
+   - 영어 등급의 평균: 3.30
+2. **최초합격자**:
+   - 모집인원: 30명
+   - 지원인원: 146명
+   - 경쟁률: 4.87
+   - 충원 합격 (후보순위): 63명
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 330.11
+   - 영어 등급의 평균: 3.30
+이 통계를 바탕으로, 소프트웨어융합학과는 상당히 경쟁률이 높은 곳입니다. 최종등록자와 최초합격자의 경우, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 317.87에서 330.11까지 높습니다.
+영어 등급의 평균은 3.30으로, 이는 대체로 중간 수준입니다. 따라서 5등급을 가지고 소프트웨어융합학과에 지원하는 것은 가능하지만 매우 어려울 것으로 예상됩니다. 
+이러한 통계를 고려할 때, 5등급으로는 충분히 합격하기 어렵다고 볼 수 있습니다. 그러나 특정 분야에서 뛰어난 실력이나 특기사항을 가지고 있다면, 이점을 강조하여 지원하는 것이 도움이 될 수 있습니다.
+결론적으로, 5등급만으로는 소프트웨어융합학과에 합격하기 어렵다고 판단됩니다.</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>0.08154485564393989</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>4.28이라는 영어 등급은 대략 2등급 정도로 추정됩니다. 동의대학교 신소재공학과에 지원하려면 몇 가지 요인을 고려해야 합니다:
+1. **전반적인 경쟁률**: 신소재공학과는 일반적으로 높은 경쟁률을 보입니다. 예를 들어, 기존 데이터에서 2024년도 모집단위의 경쟁률이 6:1 이상인 경우가 많습니다.
+2. **성적 평균**: 동의대학교 신소재공학과의 최종등록자들의 성적 평균은 대략 3.5~4.0 정도입니다. 따라서 4.28이라는 점수는 상대적으로 높지만, 경쟁률이 매우 높아서 단순히 점수가 높다고 해서 무조건 합격할 수는 없습니다.
+3. **전형방법**: 동의대학교는 다양한 전형 방법을 사용합니다. 예를 들어, &lt;나&gt;군 실기/실적(경기실적우수자전형)에서는 출결과 실적이 중요한 요소로 작용하기 때문에, 출결이 좋고 실력이 뛰어난 지원자가 유리할 수 있습니다.
+4. **추천서 및 자기소개서**: 일부 전형에서는 추천서나 자기소개서 등 서류평가가 중요하게 작용하므로, 이러한 부분에서도 좋은 평가를 받는 것이 도움이 될 수 있습니다.
+5. **추천사진 및 면접 성적**: 면접이나 실기 시험에서 좋은 성적이 나온다면 이 또한 큰 가산점이 될 수 있습니다.
+따라서 4.28이라는 점수만으로는 확실하게 합격할 수 있다고 단정 짓기는 어렵습니다. 하지만 경쟁률과 평균 성적을 고려하면, 출결이 좋고 실력도 뛰어난 지원자라면 좋은 결과를 기대할 수 있습니다.
+추천되는 조치:
+- **출결 관리**: 결석일수는 0~2일 이내로 유지하는 것이 좋습니다.
+- **실기 및 면접 준비**: 실기나 면접 시험에 대한 준비를 철저히 하세요.
+- **추천서 및 자기소개서 작성**: 서류평가에서도 좋은 평가를 받을 수 있도록 노력하세요.
+결론적으로, 4.28이라는 점수는 충분히 경쟁력을 갖춘 것으로 보이지만, 최종 합격 여부는 여러 요인에 따라 결정됩니다.</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>0.08415828899567403</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교의 수능 일반학생전형에서는 자기소개서가 필수적으로 요구되는 것은 아닙니다. 
+특히, 가군(일반학생전형)과 나군(실기/실적 포함)은 주로 수능 점수와 실기 성적이 핵심 평가 요인으로 작용합니다. 자기소개서는 일반적으로 필요하지 않으며, 서류평가 영역에서도 주로 학교생활기록부를 통해 학업역량과 전공적합성을 평가합니다.
+만약 나군 조기취업형 계약학과전형이나 다른 특별전형을 지원한다면 자기소개서가 필요할 수 있으므로, 해당 전형의 세부 안내를 확인해보시는 것이 좋습니다. 
+일반적으로 동의대학교의 경우, 수능 일반학생전형에서는 다음과 같은 서류만 제출하면 됩니다:
+- 학교생활기록부 (온라인 제공 동의자에게는 온라인으로 제공)
+- 검정고시 합격증서 (검정고시 출신자)
+- 외국고교 졸업증명서 및 성적증명서 (외국고교 졸업자)
+따라서, 기본적인 수능 일반학생전형에서는 자기소개서 작성은 필요하지 않습니다.</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>4.484882034566415e-07</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>4.5라는 점수가 주어졌을 때, 동의대학교 수능 정시 모집에 어떻게 대응할 수 있는지 판단하기 위해서는 몇 가지 요소를 고려해야 합니다.
+1. **모집단위와 경쟁률**: 각 모집단위별로 경쟁률이 다르므로, 4.5라는 점수가 어느 정도의 경쟁력을 가질지는 모집단위에 따라 다릅니다. 예를 들어, 경쟁률이 높은 학과에서는 4.5는 낮은 점수일 수 있습니다.
+2. **모집인원 및 지원자 수**: 각 모집단위의 모집인원과 지원자의 수도 중요합니다. 모집인원이 적고 지원자가 많은 경우 경쟁률이 높아져서 4.5로는 충원되지 않을 가능성이 있습니다.
+3. **성적 분포와 평균 점수**: 각 모집단위별로 성적이 어떻게 분포되어 있는지, 그리고 평균 점수가 어느 정도인지 확인해야 합니다. 예를 들어, 평균 점수가 4.0 미만인 학과에서는 4.5는 상대적으로 높은 점수일 수 있습니다.
+4. **가산점**: 일부 모집단위에서는 수능 영역별로 가산점을 부여하기도 합니다. 예를 들어, 공과대학이나 ICT융합공과대학의 경우 수학(미적분 또는 기하) 응시자에게 수학 표준점수에 10%를 더하는 가산점이 있습니다.
+5. **추가모집 가능성**: 추가모집 여부와 일정을 확인해야 합니다. 일부 학과에서는 추가모집을 통해 지원자를 확보하기도 하므로, 추가모집 가능성을 살펴볼 필요가 있습니다.
+6. **개인적 요소**: 면접 성적이 좋다면, 이는 개인적인 경쟁력을 높일 수 있습니다. 또한, 지원동기나 학업계획 등 서류평가에서 좋은 점수를 받을 경우에도 도움이 될 수 있습니다.
+따라서, 4.5라는 점수가 충분히 들어갈 수 있는지 판단하기 위해서는 위의 요소들을 종합적으로 고려해야 합니다. 각 모집단위별로 상세한 정보를 확인하고, 필요하다면 학교 측에 문의하여 자세한 설명을 받는 것이 좋습니다.
+추가로, 동의대학교의 공식 홈페이지 (https://ipsi.deu.ac.kr/main.do)에서 최신 정보와 추가모집 관련 안내를 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>0.2138519783498635</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>2024년도에 동의대학교에서 신소재공학부가 신설되어 신소재공학과와 고분자나노공학과로 분리되었습니다. 하지만, 2023년도에는 신소재공학부라는 학과가 존재했으며, 그 당시의 정시 등급을 참고해야 합니다.
+2024년도에 변경된 학과들에 대한 정확한 합격 가능 등급 정보는 아직 공개되지 않았습니다. 하지만 2023년도 신소재공학부의 경우, 일반적으로 대학별로 수능 성적과 학생부 성적을 종합적으로 평가하며, 대략적인 합격 가능 범위를 예측할 수 있습니다.
+일반적으로 공과대학의 경우 국어, 수학, 영어 등급이 4등급 이상이고 탐구 과목에서 좋은 성적이 있으면 충분히 합격 가능성이 높습니다. 특히 신소재공학과와 고분자나노공학과는 기초과학적 능력이 요구되는 분야이므로, 수학 영역의 표준점수가 높은 것이 유리할 것입니다.
+2023년도 동의대학교 신소재공학부의 경우, 대략적인 합격 가능 등급을 예측하면 다음과 같습니다:
+- 국어: 4등급 이상
+- 수학(미적분 또는 기하): 5등급 이상 (가산점 반영)
+- 영어: 3등급 이상
+이러한 정보는 변경사항과 함께 제공되었으므로, 최신 정보를 확인하기 위해서는 동의대학교의 공식 웹사이트나 입학처에 문의하는 것이 가장 정확합니다. 또한, 실제 합격 가능 등급은 모집인원, 지원자 수, 경쟁률 등의 요인에 따라 변동될 수 있으므로 참고용으로만 사용하시기 바랍니다.
+더 자세한 정보를 원하신다면 https://ipsi.deu.ac.kr/main.do 웹사이트를 참조하거나 입학처로 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>0.02444073934223708</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집에서 특정 단과대학 및 학과별 경쟁률과 충원 합격자 수, 표준점수 등이 제공되었습니다. 주어진 정보를 바탕으로 신소재공학과의 경우 다음과 같은 특징을 가집니다:
+- 모집 인원: 56명
+- 지원 인원: 81명
+- 경쟁률: 약 1.45
+- 충원 합격 (후보순위): 25명
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 271.64
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 표준 편차: 19.52
+주어진 표준점수가 447점으로 환산되었다면, 이는 상당히 높은 점수를 의미합니다. 작년에 비해 작년 신소재공학과의 최종 평균 점수가 약 1점 정도 더 높았다면, 이는 매우 극단적인 변화일 수 있습니다.
+그러나 정시 모집에서 표준점수 변동은 여러 요인에 의해 영향을 받습니다. 예를 들어:
+1. 지원자의 성적 분포가 작년과 달라질 수 있습니다.
+2. 입학사정관의 평가 기준이 바뀔 수 있습니다.
+3. 모집 단위와 학과별 경쟁률 변화 등 다양한 요인이 영향을 미칠 수 있습니다.
+따라서, 작년에 비해 약 1점 정도 더 높은 표준점수가 가능하지만, 매우 극단적인 상황일 경우 확실한 답변을 드리기는 어렵습니다. 
+더 정확한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트나 전화로 문의하시는 것이 가장 좋습니다. 해당 사이트에서는 최신 정보와 예상 점수 변동 등을 확인할 수 있습니다.
+https://ipsi.deu.ac.kr/main.do
+이 링크를 통해 더 자세한 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>0.03642062324878595</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>4.3 등급의 성적이 4.1~4.2로 변환되면, 신소재공학과의 경우 경쟁률이 높고 모집인원도 제한적이라는 점을 고려해야 합니다.
+신소재공학과는 다음과 같은 특징이 있습니다:
+- 모집단위: 공과대학
+- 계열: 공학
+- 전형명: 가군(일반학생전형)
+- 수능 반영비율: 국어 + 수학 + 영어 등급점수 + 탐구 표준점수
+4.1~4.2의 등급으로는 경쟁률이 높은 신소재공학과에 합격하기 어렵다고 판단됩니다. 이 분야는 고득점을 요구하는 과목들이 많고, 특히 수학과 영어 등급이 중요합니다.
+추천사항:
+1. **다른 전형을 고려해보세요**: 
+   - 학생부종합전형
+   - 특기자전형 (만약 해당한다면)
+2. **대비를 해보세요**:
+   - 수능 공부 강도를 높여서 등급을 향상시키는 것을 고려해볼 수 있습니다.
+   - 추가 학습 자료나 과외 등을 통해 성적을 개선할 수 있는 방법을 찾아보세요.
+3. **대체 전공을 고려해보세요**:
+   - 다른 공학과나 인접한 분야의 전공으로도 좋은 진로를 찾을 수 있습니다.
+4. **입학사정관제를 활용해보세요**: 
+   - 입학사정관이 지원자의 전체적인 성장을 평가하여 합격 여부를 결정하는 제도입니다.
+결론적으로, 현재의 성적만으로는 신소재공학과에 합격하기 어렵다고 판단됩니다. 다른 전형이나 방법을 고려해보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>0.2891628271583333</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 인공지능학과의 수능 일반학생전형에 대한 최종 등록자들의 성적 정보를 참고하겠습니다.
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균**: 403.85
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 표준 편차**: 15.55
+- **영어 등급의 평균**: 5.25
+- **영어 등급의 표준 편차**: 0.35
+- **수능 4개 영역 등급의 평균**: 4.87
+- **수능 4개 영역 등급의 표준 편차**: 0.17
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균**: 434.70
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 표준 편차**: 8.01
+이 정보를 바탕으로, 인공지능학과에 지원하려면 평균적인 성적을 넘어서야 합니다. 특히 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합은 403.85 이상이 필요하며, 영어 등급도 5.25 이상을 목표로 해야 합니다.
+만약 특정 과목의 성적이 약간 부족하다면, 다른 과목에서 더 높은 점수를 얻는 것이 유리할 수 있습니다. 또한, 가산점이 적용되는 경우도 있으므로, 해당 정보를 확인하시고 준비해보세요.
+더 자세한 정보나 추가 질문이 있다면 언제든지 물어보세요!</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>0.3487597780297675</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>5.27이라는 수능 영어 점수는 상당히 높은 점수입니다. 각 단과대학 및 모집단위별로 지원 가능성이 다르므로, 정확한 답변을 위해서는 몇 가지 정보가 필요합니다:
+1. **지원하는 단과대학**: 미래융합대학, 공과대학 등 다양한 단과대학이 있습니다.
+2. **모집단위**: 부동산자산경영학부, 기계공학과, 로봇자동화공학과 등 다양한 모집단위가 있습니다.
+3. **전형명**: 일반학생전형, 실기/실적(일반학생전형), 학생부종합 등 다양한 전형이 있습니다.
+4. **모집인원 및 지원자 수**: 각 단과대학 및 모집단위별로 모집인원과 지원자 수가 다르므로, 경쟁률을 고려해야 합니다.
+5. **기타 성적 정보**: 국어, 수학, 탐구 등 다른 영역의 성적도 중요합니다.
+이러한 정보를 바탕으로 추합 가능성 평가를 진행할 수 있습니다. 예를 들어:
+- **공과대학 기계공학과**는 2024년 모집인원이 37명이고, 지원 인원은 17명입니다.
+- **의료보건생활대학 간호학과**는 52명을 모집하고, 지원자는 22명입니다.
+5.27이라는 영어 점수는 상당히 높으므로, 대부분의 단과대학 및 모집단위에서 좋은 성적을 보여줄 수 있습니다. 그러나 경쟁률이 높은 곳에서는 여전히 낮은 확률일 수 있습니다.
+추합 가능성에 대한 자세한 답변을 위해서는 위의 정보를 제공해 주시거나, [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 링크로 가서 공식 정보를 확인하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>0.1142635742451893</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>4.2의 수능 등급으로 소프트웨어공학부에 지원하는 것은 가능하지만 경쟁률이 높아서 낮은 확률일 것입니다.
+소프트웨어공학부는 일반적으로 높은 경쟁률을 보입니다. 예를 들어, 위에서 제공된 데이터 중 일부 학과의 경쟁률을 살펴보면:
+- 소프트웨어공학부 - (컴퓨터소프트웨어공학, 응용소프트웨어공학): 모집인원 120명에 지원인원이 146명으로 경쟁률은 4.87입니다.
+- 컴퓨터공학과 - 교직: 모집인원 105명에 지원인원이 7명으로 경쟁률은 1.43입니다.
+따라서, 4.2의 수능 등급으로 소프트웨어공학부를 지원하는 경우:
+1. **경쟁률이 높아 확률이 낮습니다**: 경쟁률이 높기 때문에 충원 합격을 얻는 것은 어렵습니다.
+2. **추천사항이나 특별한 자질이 필요합니다**: 일반적인 수능 점수로는 충분하지 않으므로, 추가적으로 추천서나 프로젝트 경험 등이 있다면 이점으로 활용할 수 있습니다.
+결론적으로, 4.2의 수능 등급으로 소프트웨어공학부에 지원하는 것은 가능하지만, 낮은 확률을 인정하면서도 추가적인 자질이나 경험이 필요합니다. 더 자세한 정보를 얻기 위해서는 대학 입학처나 관련 학과 홈페이지를 확인하거나 전문가와 상담하는 것이 좋습니다.
+더 궁금하신 점이 있으시다면, "https://ipsi.deu.ac.kr/main.do" 웹사이트에서 추가 정보를 찾아보실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>0.05621726345350576</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>3.92라는 점수를 가지고 화학환경공학부(화학공학과, 환경공학과, 응용화학과)의 일반 학생전형에 지원 가능한지 판단하기 위해서는 몇 가지 정보가 필요합니다:
+1. **성적 산출 방법**: 동의대학교의 정시 모집에서 성적을 어떻게 반영하는지 확인해야 합니다. 예를 들어, 국어, 수학, 영어 등 주요 과목의 표준점수와 등급 점수가 어떤 비율로 합산되는지 알아야 합니다.
+2. **모집단위별 요구사항**: 화학환경공학부 내 각 학과(화학공학과, 환경공학과, 응용화학과)의 모집인원과 지원 자격 조건을 확인해야 합니다.
+3. **성적 평균**: 3.92라는 점수는 전체 성적 중에서 어느 위치에 있는지 확인해야 합니다. 예를 들어, 해당 학과의 입학성적이 4.0 이상일 경우, 3.92는 상대적으로 낮은 점수로 지원이 어려울 수 있습니다.
+4. **전형요소**: 동의대학교의 전형요소 반영 비율을 확인해야 합니다. 예를 들어, 실기/실적, 면접 등 다른 요소가 성적이 아닌 부분에서 중요한 역할을 하는 경우, 3.92라는 점수만으로는 충분하지 않을 수 있습니다.
+5. **경쟁률**: 해당 학과의 경쟁률을 확인하여 지원 가능성을 판단해야 합니다. 경쟁률이 높다면, 성적이 조금 낮더라도 다른 요소가 우수하다면 가능성이 있을 수 있습니다.
+위 정보들을 종합적으로 고려하여 결정하는 것이 좋습니다. 만약 자세한 정보를 원하시면 동의대학교 입학처 웹사이트나 전화로 문의하시는 것을 추천드립니다. "https://ipsi.deu.ac.kr/main.do" 링크를 통해 공식 홈페이지를 방문하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>0.04907690384215568</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 화학환경공학부에 지원하시려면, 수능(일반학생전형)을 통해 지원하실 수 있습니다. 하지만 성적과 경쟁률 등을 고려해야 합니다.
+주요 정보:
+1. **화학환경공학부 모집인원 및 지원 인원**:
+   - 모집 인원: 4명
+   - 지원 인원: 36명
+   - 경쟁률: 9.00
+2. **성적 평균 및 표준 편차**:
+   - 국어 + 수학 + 탐구 (가산점 포함) 표준 변환 점수 합의 평균: 348.76
+   - 국어 + 수학 + 탐구 (가산점 포함) 표준 변환 점수 합의 표준 편차: 5.40
+3. **성적**:
+   - 동의대식 정시 성적: 4.25
+4. **경쟁률 및 평균 점수**:
+   - 화학환경공학부는 경쟁률이 높아, 평균 점수가 348.76으로 동의대식 정시 성적 4.25보다 상당히 높습니다.
+따라서, 동의대식 정시 성적 4.25로 화학환경공학부에 지원하는 것은 어렵다고 볼 수 있습니다. 경쟁률이 매우 높고 평균 점수가 높기 때문입니다.
+**추천 사항:**
+1. **다른 학과/대학 선택**: 경쟁률을 고려하여 다른 학과나 대학을 검토해보세요.
+2. **추가 지원 방법**: 실기/실적 전형이나 특별전형 등을 고려해볼 수 있습니다.
+더 자세한 정보는 동의대학교 입학처 웹사이트 (https://ipsi.deu.ac.kr/main.do)를 참조하시거나, 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>0.1476306548739501</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>4.33 평균 점수를 기록한 지원자들이 최초합격을 거두었으므로, 4.2점은 약간 낮은 성적입니다. 그러나 정시전형의 경쟁률이 높지 않아서 4.2점을 가지고도 충분히 합격 가능성은 있습니다.
+영화학과는 일반적으로 예술 분야로, 전공 적합성이나 창의력 등 다양한 요소를 고려하기 때문에 단순 수능 점수만으로 판단하지는 않습니다. 따라서 다음과 같은 준비가 필요합니다:
+1. **전공적합성**: 지원동기에 대해 자세히 작성하고, 영화 관련 경험과 열정을 잘 표현해야 합니다.
+2. **면접 준비**: 면접에서는 창의적인 생각과 전문 지식을 보여줄 수 있는 예시를 준비해 두세요.
+3. **추천서**: 가능하다면 교사나 전문가로부터 추천서를 받는 것이 도움이 될 수 있습니다.
+수능 점수가 약간 낮더라도, 창의성과 열정을 잘 표현한다면 합격 가능성은 높습니다. 입학사정관들이 다양한 요소를 종합적으로 평가하기 때문에, 지원서와 면접에서 전공에 대한 진심어린 관심과 적합성을 잘 보여주는 것이 중요합니다.
+추가로, 입학사정관들의 평가는 학생부 성적 외에도 창의성, 경험, 열정 등 다양한 요소를 고려하므로, 지원서 작성 시 이러한 요소들을 강조하는 것이 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>0.1213825667791694</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인 
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답 (제출서류 진위 여부 등)
+8. 퇴실
+이 절차는 대부분의 면접에서 유사하게 진행되며, 각 단계별로 입학사정관 2인이 평가위원으로 참여하여 수험생의 답변 내용을 바탕으로 정성적이고 종합적으로 평가합니다.</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>0.534040861650726</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>GPT-4o-mini Average</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>0.333147951253266</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Google Gemma-2-9b-it Average</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>0.2574801326468879</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct Average</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>0.1895116931916381</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
           <t>Total Average</t>
         </is>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B305" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="C305" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="D204" t="n">
-        <v>0.2953140419500769</v>
+      <c r="D305" t="n">
+        <v>0.2600465923639307</v>
       </c>
     </row>
   </sheetData>
